--- a/kelime990.xlsx
+++ b/kelime990.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE462504-EF62-4A93-A036-1A6949DD25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61501C74-5BB3-4091-A1E9-2AF62EE711E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13324,7 +13324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13361,44 +13361,26 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Amiri Quran"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -13436,7 +13418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13450,31 +13432,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -13776,19 +13743,19 @@
   <dimension ref="A1:C991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -13798,7 +13765,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="2" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A2" s="9" t="s">
         <v>1622</v>
       </c>
@@ -13809,7 +13776,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A3" s="9" t="s">
         <v>1625</v>
       </c>
@@ -13820,7 +13787,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A4" s="9" t="s">
         <v>1628</v>
       </c>
@@ -13831,7 +13798,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A5" s="9" t="s">
         <v>1630</v>
       </c>
@@ -13842,7 +13809,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="6" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A6" s="9" t="s">
         <v>1633</v>
       </c>
@@ -13853,7 +13820,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="7" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A7" s="9" t="s">
         <v>1636</v>
       </c>
@@ -13864,7 +13831,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="8" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A8" s="9" t="s">
         <v>1639</v>
       </c>
@@ -13875,7 +13842,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="9" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A9" s="9" t="s">
         <v>1642</v>
       </c>
@@ -13886,8 +13853,8 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="79.5" x14ac:dyDescent="2.6">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A10" s="9" t="s">
         <v>4418</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -13897,7 +13864,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="11" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A11" s="9" t="s">
         <v>1646</v>
       </c>
@@ -13908,7 +13875,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="12" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A12" s="9" t="s">
         <v>1651</v>
       </c>
@@ -13919,7 +13886,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="13" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A13" s="9" t="s">
         <v>1654</v>
       </c>
@@ -13930,7 +13897,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="14" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A14" s="9" t="s">
         <v>1657</v>
       </c>
@@ -13941,7 +13908,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="15" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A15" s="9" t="s">
         <v>1660</v>
       </c>
@@ -13952,7 +13919,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="16" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A16" s="9" t="s">
         <v>1661</v>
       </c>
@@ -13963,7 +13930,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="17" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A17" s="9" t="s">
         <v>1666</v>
       </c>
@@ -13974,7 +13941,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="18" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A18" s="9" t="s">
         <v>1669</v>
       </c>
@@ -13985,7 +13952,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="19" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A19" s="9" t="s">
         <v>1672</v>
       </c>
@@ -13996,7 +13963,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="20" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A20" s="9" t="s">
         <v>1675</v>
       </c>
@@ -14007,7 +13974,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="21" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A21" s="9" t="s">
         <v>1678</v>
       </c>
@@ -14018,7 +13985,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A22" s="9" t="s">
         <v>1681</v>
       </c>
@@ -14029,7 +13996,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="23" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A23" s="9" t="s">
         <v>1684</v>
       </c>
@@ -14040,7 +14007,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="24" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A24" s="9" t="s">
         <v>1687</v>
       </c>
@@ -14051,7 +14018,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="25" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A25" s="9" t="s">
         <v>1690</v>
       </c>
@@ -14062,7 +14029,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="26" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A26" s="9" t="s">
         <v>1693</v>
       </c>
@@ -14073,7 +14040,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A27" s="9" t="s">
         <v>1696</v>
       </c>
@@ -14084,7 +14051,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="28" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A28" s="9" t="s">
         <v>1699</v>
       </c>
@@ -14095,7 +14062,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="29" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A29" s="9" t="s">
         <v>1702</v>
       </c>
@@ -14106,7 +14073,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A30" s="9" t="s">
         <v>1705</v>
       </c>
@@ -14117,7 +14084,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="31" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A31" s="9" t="s">
         <v>1708</v>
       </c>
@@ -14128,7 +14095,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="32" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A32" s="9" t="s">
         <v>1711</v>
       </c>
@@ -14139,7 +14106,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="33" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A33" s="9" t="s">
         <v>1714</v>
       </c>
@@ -14150,7 +14117,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="34" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A34" s="9" t="s">
         <v>1717</v>
       </c>
@@ -14161,7 +14128,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="35" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A35" s="9" t="s">
         <v>1720</v>
       </c>
@@ -14172,7 +14139,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="36" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A36" s="9" t="s">
         <v>1723</v>
       </c>
@@ -14183,7 +14150,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="37" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A37" s="9" t="s">
         <v>1726</v>
       </c>
@@ -14194,7 +14161,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="38" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A38" s="9" t="s">
         <v>1729</v>
       </c>
@@ -14205,7 +14172,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="39" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A39" s="9" t="s">
         <v>1732</v>
       </c>
@@ -14216,7 +14183,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="40" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A40" s="9" t="s">
         <v>1735</v>
       </c>
@@ -14227,7 +14194,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="41" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A41" s="9" t="s">
         <v>1738</v>
       </c>
@@ -14238,7 +14205,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="42" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A42" s="9" t="s">
         <v>1741</v>
       </c>
@@ -14249,7 +14216,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="43" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A43" s="9" t="s">
         <v>1744</v>
       </c>
@@ -14260,7 +14227,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="44" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A44" s="9" t="s">
         <v>1747</v>
       </c>
@@ -14271,7 +14238,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="45" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A45" s="9" t="s">
         <v>1749</v>
       </c>
@@ -14282,7 +14249,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="46" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A46" s="9" t="s">
         <v>1751</v>
       </c>
@@ -14293,7 +14260,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="47" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A47" s="9" t="s">
         <v>1754</v>
       </c>
@@ -14304,7 +14271,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="48" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A48" s="9" t="s">
         <v>1651</v>
       </c>
@@ -14315,7 +14282,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="49" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A49" s="9" t="s">
         <v>1758</v>
       </c>
@@ -14326,7 +14293,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="50" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A50" s="9" t="s">
         <v>1761</v>
       </c>
@@ -14337,7 +14304,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="51" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A51" s="9" t="s">
         <v>1764</v>
       </c>
@@ -14348,7 +14315,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="52" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A52" s="9" t="s">
         <v>1767</v>
       </c>
@@ -14359,7 +14326,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="53" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A53" s="9" t="s">
         <v>1131</v>
       </c>
@@ -14370,7 +14337,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="54" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A54" s="9" t="s">
         <v>1772</v>
       </c>
@@ -14381,7 +14348,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="55" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A55" s="9" t="s">
         <v>1775</v>
       </c>
@@ -14392,7 +14359,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="56" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A56" s="9" t="s">
         <v>1778</v>
       </c>
@@ -14403,7 +14370,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="57" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A57" s="9" t="s">
         <v>1781</v>
       </c>
@@ -14414,7 +14381,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="58" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A58" s="9" t="s">
         <v>1784</v>
       </c>
@@ -14425,7 +14392,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="59" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A59" s="9" t="s">
         <v>1787</v>
       </c>
@@ -14436,7 +14403,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="60" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A60" s="9" t="s">
         <v>1790</v>
       </c>
@@ -14447,7 +14414,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="61" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A61" s="9" t="s">
         <v>1793</v>
       </c>
@@ -14458,7 +14425,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="62" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A62" s="9" t="s">
         <v>1796</v>
       </c>
@@ -14469,7 +14436,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="63" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A63" s="9" t="s">
         <v>1799</v>
       </c>
@@ -14480,7 +14447,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="64" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A64" s="9" t="s">
         <v>1162</v>
       </c>
@@ -14491,7 +14458,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="65" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A65" s="9" t="s">
         <v>1804</v>
       </c>
@@ -14502,7 +14469,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="66" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A66" s="9" t="s">
         <v>1807</v>
       </c>
@@ -14513,7 +14480,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="67" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A67" s="9" t="s">
         <v>1810</v>
       </c>
@@ -14524,7 +14491,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="68" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A68" s="9" t="s">
         <v>1813</v>
       </c>
@@ -14535,7 +14502,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="69" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A69" s="9" t="s">
         <v>1816</v>
       </c>
@@ -14546,7 +14513,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="70" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A70" s="9" t="s">
         <v>1818</v>
       </c>
@@ -14557,7 +14524,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="71" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A71" s="9" t="s">
         <v>1821</v>
       </c>
@@ -14568,7 +14535,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="72" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A72" s="9" t="s">
         <v>1824</v>
       </c>
@@ -14579,7 +14546,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="73" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A73" s="9" t="s">
         <v>1827</v>
       </c>
@@ -14590,7 +14557,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="74" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A74" s="9" t="s">
         <v>1830</v>
       </c>
@@ -14601,7 +14568,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="75" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A75" s="9" t="s">
         <v>1833</v>
       </c>
@@ -14612,7 +14579,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="76" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A76" s="9" t="s">
         <v>1836</v>
       </c>
@@ -14623,7 +14590,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="77" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A77" s="9" t="s">
         <v>1839</v>
       </c>
@@ -14634,7 +14601,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="78" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A78" s="9" t="s">
         <v>1842</v>
       </c>
@@ -14645,7 +14612,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="79" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A79" s="9" t="s">
         <v>1845</v>
       </c>
@@ -14656,7 +14623,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="80" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A80" s="9" t="s">
         <v>1848</v>
       </c>
@@ -14667,7 +14634,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="81" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A81" s="9" t="s">
         <v>1851</v>
       </c>
@@ -14678,7 +14645,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="82" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A82" s="9" t="s">
         <v>1854</v>
       </c>
@@ -14689,7 +14656,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="83" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A83" s="9" t="s">
         <v>1856</v>
       </c>
@@ -14700,7 +14667,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="84" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A84" s="9" t="s">
         <v>1859</v>
       </c>
@@ -14711,7 +14678,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="85" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A85" s="9" t="s">
         <v>1862</v>
       </c>
@@ -14722,7 +14689,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="86" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A86" s="9" t="s">
         <v>1865</v>
       </c>
@@ -14733,7 +14700,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="87" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A87" s="9" t="s">
         <v>1868</v>
       </c>
@@ -14744,7 +14711,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="88" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A88" s="9" t="s">
         <v>1871</v>
       </c>
@@ -14755,7 +14722,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="89" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A89" s="9" t="s">
         <v>1874</v>
       </c>
@@ -14766,7 +14733,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="90" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A90" s="9" t="s">
         <v>1877</v>
       </c>
@@ -14777,7 +14744,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="91" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A91" s="9" t="s">
         <v>1880</v>
       </c>
@@ -14788,7 +14755,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="92" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A92" s="9" t="s">
         <v>1883</v>
       </c>
@@ -14799,7 +14766,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="93" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A93" s="9" t="s">
         <v>1885</v>
       </c>
@@ -14810,7 +14777,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="94" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A94" s="9" t="s">
         <v>1888</v>
       </c>
@@ -14821,7 +14788,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="95" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A95" s="9" t="s">
         <v>1891</v>
       </c>
@@ -14832,7 +14799,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="96" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A96" s="9" t="s">
         <v>1894</v>
       </c>
@@ -14843,7 +14810,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="97" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A97" s="9" t="s">
         <v>1897</v>
       </c>
@@ -14854,7 +14821,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="98" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A98" s="9" t="s">
         <v>1900</v>
       </c>
@@ -14865,7 +14832,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="99" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A99" s="9" t="s">
         <v>1903</v>
       </c>
@@ -14876,7 +14843,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="100" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A100" s="9" t="s">
         <v>1906</v>
       </c>
@@ -14887,7 +14854,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="101" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A101" s="9" t="s">
         <v>1909</v>
       </c>
@@ -14898,7 +14865,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="102" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A102" s="9" t="s">
         <v>1912</v>
       </c>
@@ -14909,7 +14876,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="103" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A103" s="9" t="s">
         <v>1914</v>
       </c>
@@ -14920,7 +14887,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="104" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A104" s="9" t="s">
         <v>1917</v>
       </c>
@@ -14931,7 +14898,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="105" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A105" s="9" t="s">
         <v>1920</v>
       </c>
@@ -14942,7 +14909,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="106" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A106" s="9" t="s">
         <v>1923</v>
       </c>
@@ -14953,7 +14920,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="107" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A107" s="9" t="s">
         <v>1926</v>
       </c>
@@ -14964,7 +14931,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="108" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A108" s="9" t="s">
         <v>1929</v>
       </c>
@@ -14975,7 +14942,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="109" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A109" s="9" t="s">
         <v>1932</v>
       </c>
@@ -14986,7 +14953,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="110" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A110" s="9" t="s">
         <v>1935</v>
       </c>
@@ -14997,7 +14964,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="111" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A111" s="9" t="s">
         <v>1848</v>
       </c>
@@ -15008,7 +14975,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="112" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A112" s="9" t="s">
         <v>1938</v>
       </c>
@@ -15019,7 +14986,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="113" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A113" s="9" t="s">
         <v>1941</v>
       </c>
@@ -15030,7 +14997,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="114" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A114" s="9" t="s">
         <v>1944</v>
       </c>
@@ -15041,7 +15008,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="115" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A115" s="9" t="s">
         <v>1947</v>
       </c>
@@ -15052,7 +15019,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="116" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A116" s="9" t="s">
         <v>1950</v>
       </c>
@@ -15063,7 +15030,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="117" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A117" s="9" t="s">
         <v>1953</v>
       </c>
@@ -15074,7 +15041,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="118" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A118" s="9" t="s">
         <v>1956</v>
       </c>
@@ -15085,7 +15052,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="119" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A119" s="9" t="s">
         <v>1959</v>
       </c>
@@ -15096,7 +15063,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="120" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A120" s="9" t="s">
         <v>1962</v>
       </c>
@@ -15107,7 +15074,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="121" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A121" s="9" t="s">
         <v>1965</v>
       </c>
@@ -15118,7 +15085,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="122" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A122" s="9" t="s">
         <v>1968</v>
       </c>
@@ -15129,7 +15096,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="123" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A123" s="9" t="s">
         <v>1971</v>
       </c>
@@ -15140,7 +15107,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="124" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A124" s="9" t="s">
         <v>1974</v>
       </c>
@@ -15151,7 +15118,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="125" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A125" s="9" t="s">
         <v>1976</v>
       </c>
@@ -15162,7 +15129,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="126" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A126" s="9" t="s">
         <v>1979</v>
       </c>
@@ -15173,7 +15140,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="127" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A127" s="9" t="s">
         <v>1982</v>
       </c>
@@ -15184,7 +15151,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="128" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A128" s="9" t="s">
         <v>1985</v>
       </c>
@@ -15195,7 +15162,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="129" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A129" s="9" t="s">
         <v>1988</v>
       </c>
@@ -15206,7 +15173,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="130" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A130" s="9" t="s">
         <v>1991</v>
       </c>
@@ -15217,7 +15184,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="131" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A131" s="9" t="s">
         <v>1994</v>
       </c>
@@ -15228,7 +15195,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="132" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A132" s="9" t="s">
         <v>1996</v>
       </c>
@@ -15239,7 +15206,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="133" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A133" s="9" t="s">
         <v>1999</v>
       </c>
@@ -15250,7 +15217,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="134" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A134" s="9" t="s">
         <v>2002</v>
       </c>
@@ -15261,7 +15228,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="135" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A135" s="9" t="s">
         <v>2005</v>
       </c>
@@ -15272,7 +15239,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="136" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A136" s="9" t="s">
         <v>2008</v>
       </c>
@@ -15283,7 +15250,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="137" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A137" s="9" t="s">
         <v>2011</v>
       </c>
@@ -15294,7 +15261,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="138" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A138" s="9" t="s">
         <v>2014</v>
       </c>
@@ -15305,7 +15272,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="139" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A139" s="9" t="s">
         <v>2017</v>
       </c>
@@ -15316,7 +15283,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="140" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A140" s="9" t="s">
         <v>2020</v>
       </c>
@@ -15327,7 +15294,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="141" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A141" s="9" t="s">
         <v>2023</v>
       </c>
@@ -15338,7 +15305,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="142" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A142" s="9" t="s">
         <v>2026</v>
       </c>
@@ -15349,7 +15316,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="143" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A143" s="9" t="s">
         <v>2029</v>
       </c>
@@ -15360,7 +15327,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="144" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A144" s="9" t="s">
         <v>2031</v>
       </c>
@@ -15371,7 +15338,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="145" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A145" s="9" t="s">
         <v>2034</v>
       </c>
@@ -15382,7 +15349,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="146" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A146" s="9" t="s">
         <v>2037</v>
       </c>
@@ -15393,7 +15360,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="147" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A147" s="9" t="s">
         <v>2040</v>
       </c>
@@ -15404,7 +15371,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="148" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A148" s="9" t="s">
         <v>2043</v>
       </c>
@@ -15415,7 +15382,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="149" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A149" s="9" t="s">
         <v>2046</v>
       </c>
@@ -15426,7 +15393,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="150" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A150" s="9" t="s">
         <v>2049</v>
       </c>
@@ -15437,7 +15404,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="151" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A151" s="9" t="s">
         <v>2052</v>
       </c>
@@ -15448,7 +15415,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="152" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A152" s="9" t="s">
         <v>2055</v>
       </c>
@@ -15459,7 +15426,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="153" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A153" s="9" t="s">
         <v>2058</v>
       </c>
@@ -15470,7 +15437,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="154" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A154" s="9" t="s">
         <v>2061</v>
       </c>
@@ -15481,7 +15448,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="155" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A155" s="9" t="s">
         <v>2064</v>
       </c>
@@ -15492,7 +15459,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="156" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A156" s="9" t="s">
         <v>2067</v>
       </c>
@@ -15503,7 +15470,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="157" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A157" s="9" t="s">
         <v>2070</v>
       </c>
@@ -15514,7 +15481,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="158" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A158" s="9" t="s">
         <v>2072</v>
       </c>
@@ -15525,7 +15492,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="159" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -15536,7 +15503,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="160" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A160" s="9" t="s">
         <v>2077</v>
       </c>
@@ -15547,7 +15514,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="161" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A161" s="9" t="s">
         <v>2080</v>
       </c>
@@ -15558,7 +15525,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="162" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A162" s="9" t="s">
         <v>2083</v>
       </c>
@@ -15569,7 +15536,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="163" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A163" s="9" t="s">
         <v>2086</v>
       </c>
@@ -15580,7 +15547,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="164" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A164" s="9" t="s">
         <v>2089</v>
       </c>
@@ -15591,7 +15558,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="165" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A165" s="9" t="s">
         <v>2092</v>
       </c>
@@ -15602,7 +15569,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="166" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A166" s="9" t="s">
         <v>2095</v>
       </c>
@@ -15613,7 +15580,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="167" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A167" s="9" t="s">
         <v>2098</v>
       </c>
@@ -15624,7 +15591,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="168" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A168" s="9" t="s">
         <v>2101</v>
       </c>
@@ -15635,7 +15602,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="169" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A169" s="9" t="s">
         <v>2104</v>
       </c>
@@ -15646,7 +15613,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="170" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A170" s="9" t="s">
         <v>2107</v>
       </c>
@@ -15657,7 +15624,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="171" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A171" s="9" t="s">
         <v>2110</v>
       </c>
@@ -15668,7 +15635,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="172" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A172" s="9" t="s">
         <v>2113</v>
       </c>
@@ -15679,7 +15646,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="173" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A173" s="9" t="s">
         <v>2116</v>
       </c>
@@ -15690,7 +15657,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="174" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A174" s="9" t="s">
         <v>2119</v>
       </c>
@@ -15701,7 +15668,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="175" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A175" s="9" t="s">
         <v>2122</v>
       </c>
@@ -15712,7 +15679,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="176" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A176" s="9" t="s">
         <v>2125</v>
       </c>
@@ -15723,7 +15690,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="177" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A177" s="9" t="s">
         <v>2128</v>
       </c>
@@ -15734,7 +15701,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="178" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A178" s="9" t="s">
         <v>2131</v>
       </c>
@@ -15745,7 +15712,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="179" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A179" s="9" t="s">
         <v>2134</v>
       </c>
@@ -15756,7 +15723,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="180" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A180" s="9" t="s">
         <v>2137</v>
       </c>
@@ -15767,7 +15734,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="181" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A181" s="9" t="s">
         <v>2140</v>
       </c>
@@ -15778,8 +15745,8 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="57.75" x14ac:dyDescent="1.9">
-      <c r="A182" s="11" t="s">
+    <row r="182" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A182" s="9" t="s">
         <v>2142</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -15789,7 +15756,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="183" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A183" s="9" t="s">
         <v>2145</v>
       </c>
@@ -15800,7 +15767,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="184" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A184" s="9" t="s">
         <v>2148</v>
       </c>
@@ -15811,7 +15778,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="185" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A185" s="9" t="s">
         <v>90</v>
       </c>
@@ -15822,7 +15789,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="186" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A186" s="9" t="s">
         <v>2152</v>
       </c>
@@ -15833,7 +15800,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="187" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A187" s="9" t="s">
         <v>2155</v>
       </c>
@@ -15844,7 +15811,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="188" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A188" s="9" t="s">
         <v>2158</v>
       </c>
@@ -15855,7 +15822,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="189" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A189" s="9" t="s">
         <v>2161</v>
       </c>
@@ -15866,7 +15833,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="190" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A190" s="9" t="s">
         <v>2164</v>
       </c>
@@ -15877,7 +15844,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="191" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A191" s="9" t="s">
         <v>2167</v>
       </c>
@@ -15888,7 +15855,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="192" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A192" s="9" t="s">
         <v>2170</v>
       </c>
@@ -15899,7 +15866,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="193" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A193" s="9" t="s">
         <v>2173</v>
       </c>
@@ -15910,7 +15877,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="194" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A194" s="9" t="s">
         <v>2176</v>
       </c>
@@ -15921,7 +15888,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="195" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A195" s="9" t="s">
         <v>2179</v>
       </c>
@@ -15932,7 +15899,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="196" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A196" s="9" t="s">
         <v>2182</v>
       </c>
@@ -15943,7 +15910,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="197" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A197" s="9" t="s">
         <v>2184</v>
       </c>
@@ -15954,7 +15921,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="198" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A198" s="9" t="s">
         <v>2187</v>
       </c>
@@ -15965,7 +15932,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="199" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A199" s="9" t="s">
         <v>1684</v>
       </c>
@@ -15976,7 +15943,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="200" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A200" s="9" t="s">
         <v>2190</v>
       </c>
@@ -15987,7 +15954,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="201" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A201" s="9" t="s">
         <v>2193</v>
       </c>
@@ -15998,7 +15965,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="202" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A202" s="9" t="s">
         <v>2196</v>
       </c>
@@ -16009,7 +15976,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="203" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A203" s="9" t="s">
         <v>2199</v>
       </c>
@@ -16020,7 +15987,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="204" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A204" s="9" t="s">
         <v>2202</v>
       </c>
@@ -16031,7 +15998,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="205" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A205" s="9" t="s">
         <v>2205</v>
       </c>
@@ -16042,7 +16009,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="206" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A206" s="9" t="s">
         <v>2208</v>
       </c>
@@ -16053,7 +16020,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="207" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A207" s="9" t="s">
         <v>2211</v>
       </c>
@@ -16064,7 +16031,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="208" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A208" s="9" t="s">
         <v>2214</v>
       </c>
@@ -16075,7 +16042,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="209" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A209" s="9" t="s">
         <v>2217</v>
       </c>
@@ -16086,7 +16053,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="210" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A210" s="9" t="s">
         <v>2220</v>
       </c>
@@ -16097,7 +16064,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="211" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A211" s="9" t="s">
         <v>2223</v>
       </c>
@@ -16108,7 +16075,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="212" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A212" s="9" t="s">
         <v>2226</v>
       </c>
@@ -16119,7 +16086,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="213" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A213" s="9" t="s">
         <v>869</v>
       </c>
@@ -16130,7 +16097,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="214" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A214" s="9" t="s">
         <v>2231</v>
       </c>
@@ -16141,7 +16108,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="215" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A215" s="9" t="s">
         <v>2234</v>
       </c>
@@ -16152,7 +16119,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="216" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A216" s="9" t="s">
         <v>2237</v>
       </c>
@@ -16163,7 +16130,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="217" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A217" s="9" t="s">
         <v>2239</v>
       </c>
@@ -16174,7 +16141,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="218" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A218" s="9" t="s">
         <v>2242</v>
       </c>
@@ -16185,7 +16152,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="219" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A219" s="9" t="s">
         <v>2244</v>
       </c>
@@ -16196,7 +16163,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="220" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A220" s="9" t="s">
         <v>2247</v>
       </c>
@@ -16207,7 +16174,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="221" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A221" s="9" t="s">
         <v>2250</v>
       </c>
@@ -16218,7 +16185,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="222" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A222" s="9" t="s">
         <v>2253</v>
       </c>
@@ -16229,7 +16196,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="223" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A223" s="9" t="s">
         <v>2256</v>
       </c>
@@ -16240,7 +16207,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="224" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A224" s="9" t="s">
         <v>2259</v>
       </c>
@@ -16251,7 +16218,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="225" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A225" s="9" t="s">
         <v>2262</v>
       </c>
@@ -16262,7 +16229,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="226" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A226" s="9" t="s">
         <v>2265</v>
       </c>
@@ -16273,7 +16240,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="227" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A227" s="9" t="s">
         <v>2268</v>
       </c>
@@ -16284,7 +16251,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="228" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A228" s="9" t="s">
         <v>2271</v>
       </c>
@@ -16295,7 +16262,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="229" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A229" s="9" t="s">
         <v>2274</v>
       </c>
@@ -16306,7 +16273,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="230" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A230" s="9" t="s">
         <v>2276</v>
       </c>
@@ -16317,7 +16284,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="231" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A231" s="9" t="s">
         <v>2279</v>
       </c>
@@ -16328,7 +16295,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="232" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A232" s="9" t="s">
         <v>2282</v>
       </c>
@@ -16339,7 +16306,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="233" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A233" s="9" t="s">
         <v>2285</v>
       </c>
@@ -16350,7 +16317,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="234" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A234" s="9" t="s">
         <v>2288</v>
       </c>
@@ -16361,7 +16328,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="235" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A235" s="9" t="s">
         <v>2291</v>
       </c>
@@ -16372,7 +16339,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="236" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A236" s="9" t="s">
         <v>2294</v>
       </c>
@@ -16383,7 +16350,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="237" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A237" s="9" t="s">
         <v>2296</v>
       </c>
@@ -16394,7 +16361,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="238" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A238" s="9" t="s">
         <v>2298</v>
       </c>
@@ -16405,7 +16372,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="239" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A239" s="9" t="s">
         <v>2301</v>
       </c>
@@ -16416,7 +16383,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="240" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A240" s="9" t="s">
         <v>2304</v>
       </c>
@@ -16427,7 +16394,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="241" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A241" s="9" t="s">
         <v>2307</v>
       </c>
@@ -16438,7 +16405,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="242" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A242" s="9" t="s">
         <v>2310</v>
       </c>
@@ -16449,7 +16416,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="243" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A243" s="9" t="s">
         <v>2313</v>
       </c>
@@ -16460,7 +16427,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="244" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A244" s="9" t="s">
         <v>2314</v>
       </c>
@@ -16471,7 +16438,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="245" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A245" s="9" t="s">
         <v>2318</v>
       </c>
@@ -16482,7 +16449,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="246" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A246" s="9" t="s">
         <v>2321</v>
       </c>
@@ -16493,7 +16460,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="247" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A247" s="9" t="s">
         <v>2324</v>
       </c>
@@ -16504,7 +16471,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="248" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A248" s="9" t="s">
         <v>2327</v>
       </c>
@@ -16515,7 +16482,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="249" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A249" s="9" t="s">
         <v>2330</v>
       </c>
@@ -16526,7 +16493,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="250" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A250" s="9" t="s">
         <v>2333</v>
       </c>
@@ -16537,7 +16504,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="251" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A251" s="9" t="s">
         <v>2336</v>
       </c>
@@ -16548,7 +16515,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="252" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A252" s="9" t="s">
         <v>2339</v>
       </c>
@@ -16559,7 +16526,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="253" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A253" s="9" t="s">
         <v>2342</v>
       </c>
@@ -16570,7 +16537,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="254" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A254" s="9" t="s">
         <v>2345</v>
       </c>
@@ -16581,7 +16548,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="255" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A255" s="9" t="s">
         <v>2348</v>
       </c>
@@ -16592,7 +16559,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="256" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A256" s="9" t="s">
         <v>2351</v>
       </c>
@@ -16603,7 +16570,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="257" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A257" s="9" t="s">
         <v>2353</v>
       </c>
@@ -16614,7 +16581,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="258" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A258" s="9" t="s">
         <v>2356</v>
       </c>
@@ -16625,7 +16592,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="259" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A259" s="9" t="s">
         <v>2359</v>
       </c>
@@ -16636,7 +16603,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="260" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A260" s="9" t="s">
         <v>2362</v>
       </c>
@@ -16647,7 +16614,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="261" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A261" s="9" t="s">
         <v>2365</v>
       </c>
@@ -16658,7 +16625,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="262" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A262" s="9" t="s">
         <v>2368</v>
       </c>
@@ -16669,7 +16636,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="263" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A263" s="9" t="s">
         <v>2371</v>
       </c>
@@ -16680,7 +16647,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="264" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A264" s="9" t="s">
         <v>2374</v>
       </c>
@@ -16691,7 +16658,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="265" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A265" s="9" t="s">
         <v>2376</v>
       </c>
@@ -16702,7 +16669,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="266" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A266" s="9" t="s">
         <v>2379</v>
       </c>
@@ -16713,7 +16680,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="267" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A267" s="9" t="s">
         <v>108</v>
       </c>
@@ -16724,7 +16691,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="268" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A268" s="9" t="s">
         <v>2384</v>
       </c>
@@ -16735,7 +16702,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="269" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A269" s="9" t="s">
         <v>2387</v>
       </c>
@@ -16746,7 +16713,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="270" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A270" s="9" t="s">
         <v>2390</v>
       </c>
@@ -16757,7 +16724,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="271" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A271" s="9" t="s">
         <v>2393</v>
       </c>
@@ -16768,7 +16735,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="272" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A272" s="9" t="s">
         <v>2396</v>
       </c>
@@ -16779,7 +16746,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="273" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A273" s="9" t="s">
         <v>2399</v>
       </c>
@@ -16790,7 +16757,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="274" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A274" s="9" t="s">
         <v>2400</v>
       </c>
@@ -16801,7 +16768,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="275" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A275" s="9" t="s">
         <v>2405</v>
       </c>
@@ -16812,7 +16779,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="276" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A276" s="9" t="s">
         <v>54</v>
       </c>
@@ -16823,7 +16790,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="277" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A277" s="9" t="s">
         <v>2410</v>
       </c>
@@ -16834,7 +16801,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="278" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A278" s="9" t="s">
         <v>2413</v>
       </c>
@@ -16845,7 +16812,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="279" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A279" s="9" t="s">
         <v>2416</v>
       </c>
@@ -16856,7 +16823,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="280" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A280" s="9" t="s">
         <v>2419</v>
       </c>
@@ -16867,7 +16834,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="281" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A281" s="9" t="s">
         <v>2422</v>
       </c>
@@ -16878,7 +16845,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="282" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A282" s="9" t="s">
         <v>2425</v>
       </c>
@@ -16889,7 +16856,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="283" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A283" s="9" t="s">
         <v>2427</v>
       </c>
@@ -16900,7 +16867,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="284" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A284" s="9" t="s">
         <v>2430</v>
       </c>
@@ -16911,7 +16878,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="285" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A285" s="9" t="s">
         <v>2433</v>
       </c>
@@ -16922,7 +16889,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="286" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A286" s="9" t="s">
         <v>2436</v>
       </c>
@@ -16933,7 +16900,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="287" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A287" s="9" t="s">
         <v>2439</v>
       </c>
@@ -16944,7 +16911,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="288" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A288" s="9" t="s">
         <v>2442</v>
       </c>
@@ -16955,7 +16922,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="289" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A289" s="9" t="s">
         <v>2445</v>
       </c>
@@ -16966,7 +16933,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="290" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A290" s="9" t="s">
         <v>2448</v>
       </c>
@@ -16977,7 +16944,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="291" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A291" s="9" t="s">
         <v>2451</v>
       </c>
@@ -16988,7 +16955,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="292" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A292" s="9" t="s">
         <v>2454</v>
       </c>
@@ -16999,7 +16966,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="293" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A293" s="9" t="s">
         <v>2457</v>
       </c>
@@ -17010,7 +16977,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="294" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A294" s="9" t="s">
         <v>2460</v>
       </c>
@@ -17021,7 +16988,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="295" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A295" s="9" t="s">
         <v>2463</v>
       </c>
@@ -17032,7 +16999,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="296" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A296" s="9" t="s">
         <v>2466</v>
       </c>
@@ -17043,7 +17010,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="297" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A297" s="9" t="s">
         <v>2468</v>
       </c>
@@ -17054,7 +17021,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="298" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A298" s="9" t="s">
         <v>2471</v>
       </c>
@@ -17065,7 +17032,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="299" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A299" s="9" t="s">
         <v>1615</v>
       </c>
@@ -17076,7 +17043,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="300" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A300" s="9" t="s">
         <v>2475</v>
       </c>
@@ -17087,7 +17054,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="301" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A301" s="9" t="s">
         <v>2478</v>
       </c>
@@ -17098,7 +17065,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="302" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A302" s="9" t="s">
         <v>2481</v>
       </c>
@@ -17109,7 +17076,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="303" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A303" s="9" t="s">
         <v>1505</v>
       </c>
@@ -17120,7 +17087,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="304" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A304" s="9" t="s">
         <v>2486</v>
       </c>
@@ -17131,7 +17098,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="305" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A305" s="9" t="s">
         <v>2489</v>
       </c>
@@ -17142,7 +17109,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="306" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A306" s="9" t="s">
         <v>2492</v>
       </c>
@@ -17153,7 +17120,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="307" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A307" s="9" t="s">
         <v>2495</v>
       </c>
@@ -17164,7 +17131,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="308" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A308" s="9" t="s">
         <v>2498</v>
       </c>
@@ -17175,7 +17142,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="309" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A309" s="9" t="s">
         <v>2501</v>
       </c>
@@ -17186,7 +17153,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="310" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A310" s="9" t="s">
         <v>2504</v>
       </c>
@@ -17197,7 +17164,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="311" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A311" s="9" t="s">
         <v>2507</v>
       </c>
@@ -17208,7 +17175,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="312" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A312" s="9" t="s">
         <v>2510</v>
       </c>
@@ -17219,7 +17186,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="313" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A313" s="9" t="s">
         <v>2513</v>
       </c>
@@ -17230,7 +17197,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="314" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A314" s="9" t="s">
         <v>2516</v>
       </c>
@@ -17241,7 +17208,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="315" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A315" s="9" t="s">
         <v>2519</v>
       </c>
@@ -17252,7 +17219,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="316" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A316" s="9" t="s">
         <v>2522</v>
       </c>
@@ -17263,7 +17230,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="317" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A317" s="9" t="s">
         <v>2525</v>
       </c>
@@ -17274,7 +17241,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="318" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A318" s="9" t="s">
         <v>2528</v>
       </c>
@@ -17285,7 +17252,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="319" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A319" s="9" t="s">
         <v>2531</v>
       </c>
@@ -17296,7 +17263,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="320" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A320" s="9" t="s">
         <v>2534</v>
       </c>
@@ -17307,7 +17274,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="321" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A321" s="9" t="s">
         <v>2542</v>
       </c>
@@ -17318,7 +17285,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="322" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A322" s="9" t="s">
         <v>2545</v>
       </c>
@@ -17329,7 +17296,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="323" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A323" s="9" t="s">
         <v>2548</v>
       </c>
@@ -17340,7 +17307,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="324" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A324" s="9" t="s">
         <v>2550</v>
       </c>
@@ -17351,7 +17318,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="325" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A325" s="9" t="s">
         <v>2552</v>
       </c>
@@ -17362,7 +17329,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="326" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A326" s="9" t="s">
         <v>1702</v>
       </c>
@@ -17373,7 +17340,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="327" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A327" s="9" t="s">
         <v>2555</v>
       </c>
@@ -17384,7 +17351,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="328" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A328" s="9" t="s">
         <v>2560</v>
       </c>
@@ -17395,7 +17362,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="329" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A329" s="9" t="s">
         <v>2563</v>
       </c>
@@ -17406,7 +17373,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="330" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A330" s="9" t="s">
         <v>825</v>
       </c>
@@ -17417,7 +17384,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="331" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A331" s="9" t="s">
         <v>2567</v>
       </c>
@@ -17428,7 +17395,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="332" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A332" s="9" t="s">
         <v>2570</v>
       </c>
@@ -17439,7 +17406,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="333" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A333" s="9" t="s">
         <v>2573</v>
       </c>
@@ -17450,7 +17417,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="334" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A334" s="9" t="s">
         <v>2173</v>
       </c>
@@ -17461,7 +17428,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="335" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A335" s="9" t="s">
         <v>2576</v>
       </c>
@@ -17472,7 +17439,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="336" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A336" s="9" t="s">
         <v>2579</v>
       </c>
@@ -17483,7 +17450,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="337" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A337" s="9" t="s">
         <v>2582</v>
       </c>
@@ -17494,7 +17461,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="338" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A338" s="9" t="s">
         <v>2585</v>
       </c>
@@ -17505,7 +17472,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="339" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A339" s="9" t="s">
         <v>990</v>
       </c>
@@ -17516,7 +17483,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="340" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A340" s="9" t="s">
         <v>2590</v>
       </c>
@@ -17527,7 +17494,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="341" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A341" s="9" t="s">
         <v>2593</v>
       </c>
@@ -17538,7 +17505,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="342" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A342" s="9" t="s">
         <v>2595</v>
       </c>
@@ -17549,7 +17516,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="343" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A343" s="9" t="s">
         <v>2598</v>
       </c>
@@ -17560,7 +17527,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="344" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A344" s="9" t="s">
         <v>2601</v>
       </c>
@@ -17571,7 +17538,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="345" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A345" s="9" t="s">
         <v>2603</v>
       </c>
@@ -17582,7 +17549,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="346" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A346" s="9" t="s">
         <v>2606</v>
       </c>
@@ -17593,7 +17560,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="347" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A347" s="9" t="s">
         <v>2609</v>
       </c>
@@ -17604,7 +17571,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="348" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A348" s="9" t="s">
         <v>2610</v>
       </c>
@@ -17616,7 +17583,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="349" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A349" s="9" t="s">
         <v>2614</v>
       </c>
@@ -17627,7 +17594,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="350" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A350" s="9" t="s">
         <v>2617</v>
       </c>
@@ -17638,7 +17605,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="351" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A351" s="9" t="s">
         <v>190</v>
       </c>
@@ -17649,7 +17616,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="352" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A352" s="9" t="s">
         <v>2621</v>
       </c>
@@ -17660,7 +17627,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="353" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A353" s="9" t="s">
         <v>2624</v>
       </c>
@@ -17671,7 +17638,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="354" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A354" s="9" t="s">
         <v>2627</v>
       </c>
@@ -17682,7 +17649,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="355" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A355" s="9" t="s">
         <v>2630</v>
       </c>
@@ -17693,7 +17660,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="356" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A356" s="9" t="s">
         <v>2633</v>
       </c>
@@ -17704,7 +17671,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="357" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A357" s="9" t="s">
         <v>2636</v>
       </c>
@@ -17715,7 +17682,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="358" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A358" s="9" t="s">
         <v>2638</v>
       </c>
@@ -17726,7 +17693,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="359" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A359" s="9" t="s">
         <v>2641</v>
       </c>
@@ -17737,7 +17704,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="360" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A360" s="9" t="s">
         <v>2644</v>
       </c>
@@ -17748,7 +17715,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="361" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A361" s="9" t="s">
         <v>2647</v>
       </c>
@@ -17759,7 +17726,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="362" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A362" s="9" t="s">
         <v>2650</v>
       </c>
@@ -17770,7 +17737,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="363" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A363" s="9" t="s">
         <v>2652</v>
       </c>
@@ -17781,7 +17748,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="364" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A364" s="9" t="s">
         <v>2653</v>
       </c>
@@ -17792,7 +17759,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="365" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A365" s="9" t="s">
         <v>2657</v>
       </c>
@@ -17803,7 +17770,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="366" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A366" s="9" t="s">
         <v>2660</v>
       </c>
@@ -17814,7 +17781,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="367" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A367" s="9" t="s">
         <v>2663</v>
       </c>
@@ -17825,7 +17792,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="368" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A368" s="9" t="s">
         <v>2666</v>
       </c>
@@ -17836,7 +17803,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="369" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A369" s="9" t="s">
         <v>2669</v>
       </c>
@@ -17847,7 +17814,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="370" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A370" s="9" t="s">
         <v>2672</v>
       </c>
@@ -17858,7 +17825,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="371" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A371" s="9" t="s">
         <v>2674</v>
       </c>
@@ -17869,7 +17836,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="372" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A372" s="9" t="s">
         <v>2676</v>
       </c>
@@ -17878,7 +17845,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="373" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A373" s="9" t="s">
         <v>2679</v>
       </c>
@@ -17889,7 +17856,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="374" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A374" s="9" t="s">
         <v>2681</v>
       </c>
@@ -17900,7 +17867,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="375" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A375" s="9" t="s">
         <v>2684</v>
       </c>
@@ -17911,7 +17878,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="376" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A376" s="9" t="s">
         <v>2687</v>
       </c>
@@ -17922,7 +17889,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="377" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A377" s="9" t="s">
         <v>2690</v>
       </c>
@@ -17933,7 +17900,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="378" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A378" s="9" t="s">
         <v>2693</v>
       </c>
@@ -17944,7 +17911,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="379" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A379" s="9" t="s">
         <v>2696</v>
       </c>
@@ -17955,7 +17922,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="380" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A380" s="9" t="s">
         <v>2699</v>
       </c>
@@ -17966,7 +17933,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="381" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A381" s="9" t="s">
         <v>109</v>
       </c>
@@ -17977,7 +17944,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="382" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A382" s="9" t="s">
         <v>2704</v>
       </c>
@@ -17988,7 +17955,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="383" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A383" s="9" t="s">
         <v>2707</v>
       </c>
@@ -17999,7 +17966,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="384" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A384" s="9" t="s">
         <v>2710</v>
       </c>
@@ -18010,7 +17977,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="385" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A385" s="9" t="s">
         <v>12</v>
       </c>
@@ -18021,7 +17988,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="386" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A386" s="9" t="s">
         <v>2715</v>
       </c>
@@ -18032,7 +17999,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="387" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A387" s="9" t="s">
         <v>2718</v>
       </c>
@@ -18043,7 +18010,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="388" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A388" s="9" t="s">
         <v>2721</v>
       </c>
@@ -18054,7 +18021,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="389" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A389" s="9" t="s">
         <v>2722</v>
       </c>
@@ -18065,7 +18032,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="390" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A390" s="9" t="s">
         <v>2727</v>
       </c>
@@ -18076,7 +18043,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="391" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A391" s="9" t="s">
         <v>2730</v>
       </c>
@@ -18087,7 +18054,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="392" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A392" s="9" t="s">
         <v>2733</v>
       </c>
@@ -18098,7 +18065,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="393" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A393" s="9" t="s">
         <v>2736</v>
       </c>
@@ -18109,7 +18076,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="394" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A394" s="9" t="s">
         <v>2739</v>
       </c>
@@ -18120,7 +18087,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="395" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A395" s="9" t="s">
         <v>2742</v>
       </c>
@@ -18131,7 +18098,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="396" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A396" s="9" t="s">
         <v>2745</v>
       </c>
@@ -18142,7 +18109,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="397" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A397" s="9" t="s">
         <v>2748</v>
       </c>
@@ -18153,7 +18120,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="398" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A398" s="9" t="s">
         <v>2751</v>
       </c>
@@ -18164,7 +18131,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="399" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A399" s="9" t="s">
         <v>191</v>
       </c>
@@ -18175,7 +18142,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="400" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A400" s="9" t="s">
         <v>2756</v>
       </c>
@@ -18186,7 +18153,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="401" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A401" s="9" t="s">
         <v>2759</v>
       </c>
@@ -18197,7 +18164,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="402" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A402" s="9" t="s">
         <v>2761</v>
       </c>
@@ -18208,7 +18175,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="403" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A403" s="9" t="s">
         <v>2764</v>
       </c>
@@ -18219,7 +18186,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="404" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A404" s="9" t="s">
         <v>2767</v>
       </c>
@@ -18230,7 +18197,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="405" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A405" s="9" t="s">
         <v>2770</v>
       </c>
@@ -18241,7 +18208,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="406" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A406" s="9" t="s">
         <v>2773</v>
       </c>
@@ -18252,7 +18219,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="407" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A407" s="9" t="s">
         <v>2776</v>
       </c>
@@ -18263,7 +18230,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="408" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A408" s="9" t="s">
         <v>2779</v>
       </c>
@@ -18274,7 +18241,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="409" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A409" s="9" t="s">
         <v>2782</v>
       </c>
@@ -18285,7 +18252,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="410" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A410" s="9" t="s">
         <v>2785</v>
       </c>
@@ -18296,7 +18263,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="411" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A411" s="9" t="s">
         <v>2788</v>
       </c>
@@ -18307,7 +18274,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="412" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A412" s="9" t="s">
         <v>2791</v>
       </c>
@@ -18318,7 +18285,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="413" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A413" s="9" t="s">
         <v>2794</v>
       </c>
@@ -18329,7 +18296,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="414" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A414" s="9" t="s">
         <v>176</v>
       </c>
@@ -18340,7 +18307,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="415" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A415" s="9" t="s">
         <v>2799</v>
       </c>
@@ -18351,7 +18318,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="416" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A416" s="9" t="s">
         <v>2802</v>
       </c>
@@ -18362,7 +18329,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="417" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A417" s="9" t="s">
         <v>2805</v>
       </c>
@@ -18373,7 +18340,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="418" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A418" s="9" t="s">
         <v>2808</v>
       </c>
@@ -18384,7 +18351,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="419" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A419" s="9" t="s">
         <v>2811</v>
       </c>
@@ -18395,7 +18362,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="420" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A420" s="9" t="s">
         <v>2814</v>
       </c>
@@ -18406,7 +18373,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="421" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A421" s="9" t="s">
         <v>2817</v>
       </c>
@@ -18417,7 +18384,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="422" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A422" s="9" t="s">
         <v>2820</v>
       </c>
@@ -18428,7 +18395,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="423" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A423" s="9" t="s">
         <v>2823</v>
       </c>
@@ -18439,7 +18406,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="424" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A424" s="9" t="s">
         <v>2826</v>
       </c>
@@ -18450,7 +18417,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="425" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A425" s="9" t="s">
         <v>2829</v>
       </c>
@@ -18461,7 +18428,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="426" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A426" s="9" t="s">
         <v>2832</v>
       </c>
@@ -18472,7 +18439,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="427" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A427" s="9" t="s">
         <v>2835</v>
       </c>
@@ -18483,7 +18450,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="428" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A428" s="9" t="s">
         <v>1128</v>
       </c>
@@ -18494,7 +18461,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="429" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A429" s="9" t="s">
         <v>2840</v>
       </c>
@@ -18505,7 +18472,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="430" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A430" s="9" t="s">
         <v>2843</v>
       </c>
@@ -18516,7 +18483,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="431" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A431" s="9" t="s">
         <v>2846</v>
       </c>
@@ -18527,7 +18494,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="432" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A432" s="9" t="s">
         <v>2849</v>
       </c>
@@ -18538,7 +18505,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="433" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A433" s="9" t="s">
         <v>2852</v>
       </c>
@@ -18549,7 +18516,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="434" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A434" s="9" t="s">
         <v>2854</v>
       </c>
@@ -18560,7 +18527,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="435" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A435" s="9" t="s">
         <v>2857</v>
       </c>
@@ -18571,7 +18538,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="436" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A436" s="9" t="s">
         <v>2860</v>
       </c>
@@ -18582,7 +18549,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="437" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A437" s="9" t="s">
         <v>2863</v>
       </c>
@@ -18593,7 +18560,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="438" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A438" s="9" t="s">
         <v>2866</v>
       </c>
@@ -18604,7 +18571,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="439" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A439" s="9" t="s">
         <v>2869</v>
       </c>
@@ -18615,7 +18582,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="440" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A440" s="9" t="s">
         <v>2872</v>
       </c>
@@ -18626,7 +18593,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="441" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A441" s="9" t="s">
         <v>2874</v>
       </c>
@@ -18637,7 +18604,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="442" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A442" s="9" t="s">
         <v>2877</v>
       </c>
@@ -18648,7 +18615,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="443" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A443" s="9" t="s">
         <v>2880</v>
       </c>
@@ -18659,7 +18626,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="444" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A444" s="9" t="s">
         <v>2883</v>
       </c>
@@ -18670,7 +18637,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="445" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A445" s="9" t="s">
         <v>2886</v>
       </c>
@@ -18681,7 +18648,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="446" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A446" s="9" t="s">
         <v>2889</v>
       </c>
@@ -18692,7 +18659,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="447" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A447" s="9" t="s">
         <v>2892</v>
       </c>
@@ -18703,7 +18670,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="448" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A448" s="9" t="s">
         <v>2895</v>
       </c>
@@ -18714,7 +18681,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="449" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A449" s="9" t="s">
         <v>2898</v>
       </c>
@@ -18725,7 +18692,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="450" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A450" s="9" t="s">
         <v>2901</v>
       </c>
@@ -18736,7 +18703,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="451" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A451" s="9" t="s">
         <v>2904</v>
       </c>
@@ -18747,7 +18714,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="452" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A452" s="9" t="s">
         <v>2907</v>
       </c>
@@ -18758,7 +18725,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="453" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A453" s="9" t="s">
         <v>2910</v>
       </c>
@@ -18769,7 +18736,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="454" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A454" s="9" t="s">
         <v>2913</v>
       </c>
@@ -18780,7 +18747,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="455" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A455" s="9" t="s">
         <v>2916</v>
       </c>
@@ -18791,7 +18758,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="456" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A456" s="9" t="s">
         <v>2919</v>
       </c>
@@ -18802,7 +18769,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="457" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A457" s="9" t="s">
         <v>2922</v>
       </c>
@@ -18813,7 +18780,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="458" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A458" s="9" t="s">
         <v>2924</v>
       </c>
@@ -18824,7 +18791,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="459" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A459" s="9" t="s">
         <v>2927</v>
       </c>
@@ -18835,7 +18802,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="460" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A460" s="9" t="s">
         <v>2930</v>
       </c>
@@ -18846,7 +18813,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="461" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A461" s="9" t="s">
         <v>2933</v>
       </c>
@@ -18857,7 +18824,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="462" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A462" s="9" t="s">
         <v>2936</v>
       </c>
@@ -18868,7 +18835,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="463" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A463" s="9" t="s">
         <v>2939</v>
       </c>
@@ -18879,7 +18846,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="464" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A464" s="9" t="s">
         <v>2942</v>
       </c>
@@ -18890,7 +18857,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="465" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A465" s="9" t="s">
         <v>2945</v>
       </c>
@@ -18901,7 +18868,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="466" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A466" s="9" t="s">
         <v>2948</v>
       </c>
@@ -18912,7 +18879,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="467" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A467" s="9" t="s">
         <v>2951</v>
       </c>
@@ -18923,7 +18890,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="468" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A468" s="9" t="s">
         <v>2954</v>
       </c>
@@ -18934,7 +18901,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="469" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A469" s="9" t="s">
         <v>2957</v>
       </c>
@@ -18945,7 +18912,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="470" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A470" s="9" t="s">
         <v>2959</v>
       </c>
@@ -18957,7 +18924,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="471" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A471" s="9" t="s">
         <v>2962</v>
       </c>
@@ -18968,7 +18935,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="472" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A472" s="9" t="s">
         <v>2965</v>
       </c>
@@ -18979,7 +18946,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="473" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A473" s="9" t="s">
         <v>2968</v>
       </c>
@@ -18990,7 +18957,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="474" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A474" s="9" t="s">
         <v>2970</v>
       </c>
@@ -19001,7 +18968,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="475" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A475" s="9" t="s">
         <v>2973</v>
       </c>
@@ -19012,7 +18979,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="476" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A476" s="9" t="s">
         <v>2975</v>
       </c>
@@ -19023,7 +18990,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="477" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A477" s="9" t="s">
         <v>2977</v>
       </c>
@@ -19034,7 +19001,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="478" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A478" s="9" t="s">
         <v>2979</v>
       </c>
@@ -19045,7 +19012,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="479" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A479" s="9" t="s">
         <v>2982</v>
       </c>
@@ -19056,7 +19023,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="480" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A480" s="9" t="s">
         <v>2985</v>
       </c>
@@ -19067,7 +19034,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="481" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A481" s="9" t="s">
         <v>2988</v>
       </c>
@@ -19078,7 +19045,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="482" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A482" s="9" t="s">
         <v>2991</v>
       </c>
@@ -19089,7 +19056,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="483" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A483" s="9" t="s">
         <v>2994</v>
       </c>
@@ -19100,7 +19067,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="484" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A484" s="9" t="s">
         <v>2997</v>
       </c>
@@ -19111,7 +19078,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="485" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A485" s="9" t="s">
         <v>4</v>
       </c>
@@ -19122,7 +19089,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="486" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A486" s="9" t="s">
         <v>3001</v>
       </c>
@@ -19133,7 +19100,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="487" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A487" s="9" t="s">
         <v>3003</v>
       </c>
@@ -19144,7 +19111,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="488" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A488" s="9" t="s">
         <v>3006</v>
       </c>
@@ -19155,7 +19122,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="489" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A489" s="9" t="s">
         <v>3009</v>
       </c>
@@ -19166,7 +19133,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="490" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A490" s="9" t="s">
         <v>3012</v>
       </c>
@@ -19177,7 +19144,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="491" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A491" s="9" t="s">
         <v>14</v>
       </c>
@@ -19188,7 +19155,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="492" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A492" s="9" t="s">
         <v>837</v>
       </c>
@@ -19199,7 +19166,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="493" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A493" s="9" t="s">
         <v>2110</v>
       </c>
@@ -19210,7 +19177,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="494" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A494" s="9" t="s">
         <v>3020</v>
       </c>
@@ -19221,7 +19188,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="495" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A495" s="9" t="s">
         <v>3023</v>
       </c>
@@ -19232,7 +19199,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="496" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A496" s="9" t="s">
         <v>3026</v>
       </c>
@@ -19243,7 +19210,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="497" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A497" s="9" t="s">
         <v>3029</v>
       </c>
@@ -19254,7 +19221,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="498" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A498" s="9" t="s">
         <v>3032</v>
       </c>
@@ -19265,7 +19232,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="499" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A499" s="9" t="s">
         <v>3035</v>
       </c>
@@ -19276,7 +19243,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="500" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A500" s="9" t="s">
         <v>3038</v>
       </c>
@@ -19287,7 +19254,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="501" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A501" s="9" t="s">
         <v>3041</v>
       </c>
@@ -19298,7 +19265,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="502" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A502" s="9" t="s">
         <v>3044</v>
       </c>
@@ -19309,7 +19276,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="503" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A503" s="9" t="s">
         <v>3047</v>
       </c>
@@ -19320,7 +19287,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="504" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A504" s="9" t="s">
         <v>3050</v>
       </c>
@@ -19331,7 +19298,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="505" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A505" s="9" t="s">
         <v>3053</v>
       </c>
@@ -19342,7 +19309,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="506" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A506" s="9" t="s">
         <v>3056</v>
       </c>
@@ -19353,7 +19320,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="507" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A507" s="9" t="s">
         <v>3059</v>
       </c>
@@ -19364,7 +19331,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="508" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A508" s="9" t="s">
         <v>3062</v>
       </c>
@@ -19375,7 +19342,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="509" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A509" s="9" t="s">
         <v>3065</v>
       </c>
@@ -19386,7 +19353,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="510" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A510" s="9" t="s">
         <v>3068</v>
       </c>
@@ -19397,7 +19364,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="511" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A511" s="9" t="s">
         <v>3070</v>
       </c>
@@ -19408,7 +19375,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="512" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A512" s="9" t="s">
         <v>3072</v>
       </c>
@@ -19419,7 +19386,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="513" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A513" s="9" t="s">
         <v>3075</v>
       </c>
@@ -19430,7 +19397,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="514" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A514" s="9" t="s">
         <v>3078</v>
       </c>
@@ -19441,7 +19408,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="515" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A515" s="9" t="s">
         <v>3079</v>
       </c>
@@ -19452,7 +19419,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="516" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A516" s="9" t="s">
         <v>3084</v>
       </c>
@@ -19463,7 +19430,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="517" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A517" s="9" t="s">
         <v>3087</v>
       </c>
@@ -19474,7 +19441,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="518" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A518" s="9" t="s">
         <v>3090</v>
       </c>
@@ -19485,7 +19452,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="519" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A519" s="9" t="s">
         <v>3092</v>
       </c>
@@ -19496,7 +19463,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="520" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A520" s="9" t="s">
         <v>3095</v>
       </c>
@@ -19507,7 +19474,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="521" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A521" s="9" t="s">
         <v>3097</v>
       </c>
@@ -19518,7 +19485,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="522" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A522" s="9" t="s">
         <v>3100</v>
       </c>
@@ -19529,7 +19496,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="523" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A523" s="9" t="s">
         <v>3103</v>
       </c>
@@ -19540,7 +19507,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="524" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A524" s="9" t="s">
         <v>3106</v>
       </c>
@@ -19551,7 +19518,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="525" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A525" s="9" t="s">
         <v>3109</v>
       </c>
@@ -19562,7 +19529,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="526" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A526" s="9" t="s">
         <v>3112</v>
       </c>
@@ -19573,7 +19540,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="527" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A527" s="9" t="s">
         <v>3114</v>
       </c>
@@ -19584,7 +19551,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="528" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A528" s="9" t="s">
         <v>3117</v>
       </c>
@@ -19595,7 +19562,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="529" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A529" s="9" t="s">
         <v>3120</v>
       </c>
@@ -19606,7 +19573,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="530" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A530" s="9" t="s">
         <v>3123</v>
       </c>
@@ -19617,7 +19584,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="531" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A531" s="9" t="s">
         <v>3126</v>
       </c>
@@ -19628,7 +19595,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="532" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A532" s="9" t="s">
         <v>3129</v>
       </c>
@@ -19639,7 +19606,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="533" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A533" s="9" t="s">
         <v>3132</v>
       </c>
@@ -19650,7 +19617,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="534" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A534" s="9" t="s">
         <v>3135</v>
       </c>
@@ -19661,7 +19628,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="535" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A535" s="9" t="s">
         <v>1761</v>
       </c>
@@ -19672,7 +19639,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="536" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A536" s="9" t="s">
         <v>3140</v>
       </c>
@@ -19683,7 +19650,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="537" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A537" s="9" t="s">
         <v>3143</v>
       </c>
@@ -19694,7 +19661,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="538" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A538" s="9" t="s">
         <v>3146</v>
       </c>
@@ -19705,7 +19672,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="539" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A539" s="9" t="s">
         <v>3149</v>
       </c>
@@ -19716,7 +19683,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="540" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A540" s="9" t="s">
         <v>3152</v>
       </c>
@@ -19727,7 +19694,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="541" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A541" s="9" t="s">
         <v>3155</v>
       </c>
@@ -19738,7 +19705,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="542" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A542" s="9" t="s">
         <v>3158</v>
       </c>
@@ -19749,7 +19716,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="543" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A543" s="9" t="s">
         <v>3160</v>
       </c>
@@ -19760,7 +19727,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="544" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A544" s="9" t="s">
         <v>3163</v>
       </c>
@@ -19771,7 +19738,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="545" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A545" s="9" t="s">
         <v>3166</v>
       </c>
@@ -19782,7 +19749,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="546" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A546" s="9" t="s">
         <v>3169</v>
       </c>
@@ -19793,7 +19760,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="547" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A547" s="9" t="s">
         <v>3172</v>
       </c>
@@ -19804,7 +19771,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="548" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A548" s="9" t="s">
         <v>3175</v>
       </c>
@@ -19815,7 +19782,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="549" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A549" s="9" t="s">
         <v>3178</v>
       </c>
@@ -19826,7 +19793,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="550" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A550" s="9" t="s">
         <v>3181</v>
       </c>
@@ -19837,7 +19804,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="551" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A551" s="9" t="s">
         <v>3184</v>
       </c>
@@ -19848,7 +19815,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="552" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A552" s="9" t="s">
         <v>3187</v>
       </c>
@@ -19859,7 +19826,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="553" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A553" s="9" t="s">
         <v>3190</v>
       </c>
@@ -19870,7 +19837,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="554" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A554" s="9" t="s">
         <v>3193</v>
       </c>
@@ -19881,7 +19848,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="555" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A555" s="9" t="s">
         <v>3196</v>
       </c>
@@ -19892,7 +19859,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="556" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A556" s="9" t="s">
         <v>2199</v>
       </c>
@@ -19903,7 +19870,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="557" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A557" s="9" t="s">
         <v>3198</v>
       </c>
@@ -19914,7 +19881,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="558" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A558" s="9" t="s">
         <v>3201</v>
       </c>
@@ -19925,7 +19892,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="559" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A559" s="9" t="s">
         <v>1613</v>
       </c>
@@ -19936,7 +19903,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="560" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A560" s="9" t="s">
         <v>3206</v>
       </c>
@@ -19947,7 +19914,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="561" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A561" s="9" t="s">
         <v>3209</v>
       </c>
@@ -19958,7 +19925,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="562" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A562" s="9" t="s">
         <v>3212</v>
       </c>
@@ -19969,7 +19936,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="563" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A563" s="9" t="s">
         <v>3215</v>
       </c>
@@ -19980,7 +19947,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="564" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A564" s="9" t="s">
         <v>3217</v>
       </c>
@@ -19991,7 +19958,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="565" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A565" s="9" t="s">
         <v>3220</v>
       </c>
@@ -20002,7 +19969,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="566" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A566" s="9" t="s">
         <v>3223</v>
       </c>
@@ -20013,7 +19980,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="567" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A567" s="9" t="s">
         <v>3226</v>
       </c>
@@ -20024,7 +19991,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="568" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A568" s="9" t="s">
         <v>3229</v>
       </c>
@@ -20035,7 +20002,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="569" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A569" s="9" t="s">
         <v>3232</v>
       </c>
@@ -20046,7 +20013,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="570" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A570" s="9" t="s">
         <v>3235</v>
       </c>
@@ -20057,7 +20024,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="571" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A571" s="9" t="s">
         <v>3238</v>
       </c>
@@ -20068,7 +20035,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="572" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A572" s="9" t="s">
         <v>3240</v>
       </c>
@@ -20079,7 +20046,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="573" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A573" s="9" t="s">
         <v>3242</v>
       </c>
@@ -20090,7 +20057,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="574" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A574" s="9" t="s">
         <v>3245</v>
       </c>
@@ -20101,7 +20068,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="575" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A575" s="9" t="s">
         <v>3248</v>
       </c>
@@ -20112,7 +20079,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="576" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A576" s="9" t="s">
         <v>3251</v>
       </c>
@@ -20123,7 +20090,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="577" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A577" s="9" t="s">
         <v>3254</v>
       </c>
@@ -20134,7 +20101,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="578" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A578" s="9" t="s">
         <v>3257</v>
       </c>
@@ -20145,7 +20112,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="579" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A579" s="9" t="s">
         <v>3258</v>
       </c>
@@ -20156,7 +20123,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="580" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A580" s="9" t="s">
         <v>3263</v>
       </c>
@@ -20167,7 +20134,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="581" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A581" s="9" t="s">
         <v>1614</v>
       </c>
@@ -20178,7 +20145,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="582" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A582" s="9" t="s">
         <v>3268</v>
       </c>
@@ -20189,7 +20156,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="583" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A583" s="9" t="s">
         <v>3271</v>
       </c>
@@ -20200,7 +20167,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="584" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A584" s="9" t="s">
         <v>3274</v>
       </c>
@@ -20211,7 +20178,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="585" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A585" s="9" t="s">
         <v>3277</v>
       </c>
@@ -20222,7 +20189,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="586" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A586" s="9" t="s">
         <v>3279</v>
       </c>
@@ -20231,7 +20198,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="587" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A587" s="9" t="s">
         <v>3282</v>
       </c>
@@ -20242,7 +20209,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="588" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A588" s="9" t="s">
         <v>3285</v>
       </c>
@@ -20253,7 +20220,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="589" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A589" s="9" t="s">
         <v>3288</v>
       </c>
@@ -20264,7 +20231,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="590" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A590" s="9" t="s">
         <v>3291</v>
       </c>
@@ -20275,7 +20242,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="591" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A591" s="9" t="s">
         <v>3294</v>
       </c>
@@ -20286,7 +20253,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="592" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A592" s="9" t="s">
         <v>1618</v>
       </c>
@@ -20297,7 +20264,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="593" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A593" s="9" t="s">
         <v>3298</v>
       </c>
@@ -20308,7 +20275,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="594" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A594" s="9" t="s">
         <v>3300</v>
       </c>
@@ -20319,7 +20286,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="595" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A595" s="9" t="s">
         <v>3303</v>
       </c>
@@ -20330,7 +20297,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="596" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A596" s="9" t="s">
         <v>3306</v>
       </c>
@@ -20341,7 +20308,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="597" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A597" s="9" t="s">
         <v>3309</v>
       </c>
@@ -20352,7 +20319,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="598" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A598" s="9" t="s">
         <v>3311</v>
       </c>
@@ -20363,7 +20330,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="599" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A599" s="9" t="s">
         <v>3313</v>
       </c>
@@ -20374,7 +20341,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="600" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A600" s="9" t="s">
         <v>3316</v>
       </c>
@@ -20385,7 +20352,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="601" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A601" s="9" t="s">
         <v>3318</v>
       </c>
@@ -20396,7 +20363,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="602" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A602" s="9" t="s">
         <v>3321</v>
       </c>
@@ -20407,7 +20374,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="603" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A603" s="9" t="s">
         <v>3322</v>
       </c>
@@ -20418,7 +20385,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="604" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A604" s="9" t="s">
         <v>3327</v>
       </c>
@@ -20429,7 +20396,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="605" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A605" s="9" t="s">
         <v>3330</v>
       </c>
@@ -20440,7 +20407,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="606" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A606" s="9" t="s">
         <v>3333</v>
       </c>
@@ -20451,7 +20418,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="607" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A607" s="9" t="s">
         <v>3336</v>
       </c>
@@ -20462,7 +20429,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="608" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A608" s="9" t="s">
         <v>3339</v>
       </c>
@@ -20473,7 +20440,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="609" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A609" s="9" t="s">
         <v>3342</v>
       </c>
@@ -20484,7 +20451,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="610" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A610" s="9" t="s">
         <v>3345</v>
       </c>
@@ -20495,7 +20462,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="611" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A611" s="9" t="s">
         <v>3348</v>
       </c>
@@ -20506,7 +20473,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="612" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A612" s="9" t="s">
         <v>3351</v>
       </c>
@@ -20517,7 +20484,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="613" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A613" s="9" t="s">
         <v>3354</v>
       </c>
@@ -20528,7 +20495,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="614" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A614" s="9" t="s">
         <v>3357</v>
       </c>
@@ -20539,7 +20506,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="615" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A615" s="9" t="s">
         <v>3358</v>
       </c>
@@ -20550,7 +20517,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="616" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A616" s="9" t="s">
         <v>3362</v>
       </c>
@@ -20561,7 +20528,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="617" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A617" s="9" t="s">
         <v>3365</v>
       </c>
@@ -20572,7 +20539,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="618" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A618" s="9" t="s">
         <v>3368</v>
       </c>
@@ -20583,7 +20550,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="619" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A619" s="9" t="s">
         <v>3371</v>
       </c>
@@ -20594,7 +20561,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="620" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A620" s="9" t="s">
         <v>10</v>
       </c>
@@ -20605,7 +20572,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="621" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A621" s="9" t="s">
         <v>1620</v>
       </c>
@@ -20616,7 +20583,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="622" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A622" s="9" t="s">
         <v>3378</v>
       </c>
@@ -20627,7 +20594,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="623" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A623" s="9" t="s">
         <v>3380</v>
       </c>
@@ -20638,7 +20605,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="624" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A624" s="9" t="s">
         <v>3383</v>
       </c>
@@ -20649,7 +20616,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="625" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A625" s="9" t="s">
         <v>3386</v>
       </c>
@@ -20660,7 +20627,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="626" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A626" s="9" t="s">
         <v>3389</v>
       </c>
@@ -20671,7 +20638,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="627" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A627" s="9" t="s">
         <v>3392</v>
       </c>
@@ -20682,7 +20649,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="628" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A628" s="9" t="s">
         <v>3395</v>
       </c>
@@ -20693,7 +20660,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="629" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A629" s="9" t="s">
         <v>3398</v>
       </c>
@@ -20704,7 +20671,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="630" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A630" s="9" t="s">
         <v>3401</v>
       </c>
@@ -20715,7 +20682,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="631" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A631" s="9" t="s">
         <v>3404</v>
       </c>
@@ -20726,7 +20693,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="632" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A632" s="9" t="s">
         <v>3407</v>
       </c>
@@ -20737,7 +20704,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="633" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A633" s="9" t="s">
         <v>3410</v>
       </c>
@@ -20748,7 +20715,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="634" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A634" s="9" t="s">
         <v>3413</v>
       </c>
@@ -20759,7 +20726,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="635" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A635" s="9" t="s">
         <v>3416</v>
       </c>
@@ -20770,7 +20737,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="636" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A636" s="9" t="s">
         <v>3419</v>
       </c>
@@ -20781,7 +20748,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="637" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A637" s="9" t="s">
         <v>3421</v>
       </c>
@@ -20792,7 +20759,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="638" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A638" s="9" t="s">
         <v>3423</v>
       </c>
@@ -20803,7 +20770,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="639" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A639" s="9" t="s">
         <v>3426</v>
       </c>
@@ -20814,7 +20781,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="640" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A640" s="9" t="s">
         <v>3429</v>
       </c>
@@ -20825,7 +20792,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="641" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A641" s="9" t="s">
         <v>3432</v>
       </c>
@@ -20836,7 +20803,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="642" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A642" s="9" t="s">
         <v>3434</v>
       </c>
@@ -20847,7 +20814,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="643" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A643" s="9" t="s">
         <v>3437</v>
       </c>
@@ -20858,7 +20825,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="644" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A644" s="9" t="s">
         <v>3440</v>
       </c>
@@ -20869,7 +20836,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="645" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A645" s="9" t="s">
         <v>3443</v>
       </c>
@@ -20880,7 +20847,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="646" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A646" s="9" t="s">
         <v>3446</v>
       </c>
@@ -20891,7 +20858,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="647" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A647" s="9" t="s">
         <v>3449</v>
       </c>
@@ -20902,7 +20869,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="648" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A648" s="9" t="s">
         <v>3452</v>
       </c>
@@ -20913,7 +20880,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="649" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A649" s="9" t="s">
         <v>3455</v>
       </c>
@@ -20924,7 +20891,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="650" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A650" s="9" t="s">
         <v>3458</v>
       </c>
@@ -20935,7 +20902,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="651" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A651" s="9" t="s">
         <v>3461</v>
       </c>
@@ -20946,7 +20913,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="652" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A652" s="9" t="s">
         <v>3464</v>
       </c>
@@ -20957,7 +20924,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="653" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A653" s="9" t="s">
         <v>3467</v>
       </c>
@@ -20968,7 +20935,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="654" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A654" s="9" t="s">
         <v>3470</v>
       </c>
@@ -20979,7 +20946,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="655" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A655" s="9" t="s">
         <v>3473</v>
       </c>
@@ -20990,7 +20957,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="656" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A656" s="9" t="s">
         <v>2537</v>
       </c>
@@ -21001,7 +20968,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="657" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A657" s="9" t="s">
         <v>3477</v>
       </c>
@@ -21012,7 +20979,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="658" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A658" s="9" t="s">
         <v>3480</v>
       </c>
@@ -21023,7 +20990,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="659" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A659" s="9" t="s">
         <v>3483</v>
       </c>
@@ -21034,7 +21001,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="660" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A660" s="9" t="s">
         <v>3486</v>
       </c>
@@ -21045,7 +21012,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="661" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A661" s="9" t="s">
         <v>3489</v>
       </c>
@@ -21056,7 +21023,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="662" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A662" s="9" t="s">
         <v>3490</v>
       </c>
@@ -21067,7 +21034,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="663" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A663" s="9" t="s">
         <v>3493</v>
       </c>
@@ -21078,7 +21045,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="664" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A664" s="9" t="s">
         <v>3496</v>
       </c>
@@ -21089,7 +21056,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="665" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="665" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A665" s="9" t="s">
         <v>3498</v>
       </c>
@@ -21100,7 +21067,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="666" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A666" s="9" t="s">
         <v>3501</v>
       </c>
@@ -21111,7 +21078,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="667" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A667" s="9" t="s">
         <v>3504</v>
       </c>
@@ -21122,7 +21089,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="668" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A668" s="9" t="s">
         <v>3507</v>
       </c>
@@ -21133,7 +21100,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="669" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A669" s="9" t="s">
         <v>3510</v>
       </c>
@@ -21144,7 +21111,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="670" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A670" s="9" t="s">
         <v>3513</v>
       </c>
@@ -21155,7 +21122,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="671" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A671" s="9" t="s">
         <v>1621</v>
       </c>
@@ -21166,7 +21133,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="672" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A672" s="9" t="s">
         <v>3518</v>
       </c>
@@ -21177,7 +21144,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="673" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A673" s="9" t="s">
         <v>3521</v>
       </c>
@@ -21188,7 +21155,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="674" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A674" s="9" t="s">
         <v>3524</v>
       </c>
@@ -21199,7 +21166,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="675" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A675" s="9" t="s">
         <v>3527</v>
       </c>
@@ -21210,7 +21177,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="676" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A676" s="9" t="s">
         <v>3530</v>
       </c>
@@ -21221,7 +21188,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="677" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A677" s="9" t="s">
         <v>3533</v>
       </c>
@@ -21232,7 +21199,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="678" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A678" s="9" t="s">
         <v>3536</v>
       </c>
@@ -21243,7 +21210,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="679" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A679" s="9" t="s">
         <v>3539</v>
       </c>
@@ -21254,7 +21221,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="680" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A680" s="9" t="s">
         <v>3542</v>
       </c>
@@ -21265,7 +21232,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="681" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A681" s="9" t="s">
         <v>3545</v>
       </c>
@@ -21276,7 +21243,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="682" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A682" s="9" t="s">
         <v>3548</v>
       </c>
@@ -21287,7 +21254,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="683" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A683" s="9" t="s">
         <v>3551</v>
       </c>
@@ -21298,7 +21265,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="684" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A684" s="9" t="s">
         <v>3554</v>
       </c>
@@ -21309,7 +21276,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="685" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A685" s="9" t="s">
         <v>3557</v>
       </c>
@@ -21320,7 +21287,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="686" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A686" s="9" t="s">
         <v>3560</v>
       </c>
@@ -21331,7 +21298,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="687" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A687" s="9" t="s">
         <v>3563</v>
       </c>
@@ -21342,7 +21309,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="688" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A688" s="9" t="s">
         <v>3566</v>
       </c>
@@ -21353,7 +21320,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="689" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A689" s="9" t="s">
         <v>3569</v>
       </c>
@@ -21364,7 +21331,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="690" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A690" s="9" t="s">
         <v>3571</v>
       </c>
@@ -21375,7 +21342,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="691" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A691" s="9" t="s">
         <v>3574</v>
       </c>
@@ -21386,7 +21353,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="692" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A692" s="9" t="s">
         <v>3577</v>
       </c>
@@ -21397,7 +21364,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="693" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A693" s="9" t="s">
         <v>3580</v>
       </c>
@@ -21408,7 +21375,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="694" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A694" s="9" t="s">
         <v>1612</v>
       </c>
@@ -21419,7 +21386,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="695" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A695" s="9" t="s">
         <v>3585</v>
       </c>
@@ -21430,7 +21397,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="696" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A696" s="9" t="s">
         <v>3588</v>
       </c>
@@ -21441,7 +21408,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="697" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A697" s="9" t="s">
         <v>3591</v>
       </c>
@@ -21452,7 +21419,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="698" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A698" s="9" t="s">
         <v>3594</v>
       </c>
@@ -21463,7 +21430,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="699" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A699" s="9" t="s">
         <v>3597</v>
       </c>
@@ -21474,7 +21441,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="700" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A700" s="9" t="s">
         <v>3600</v>
       </c>
@@ -21485,7 +21452,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="701" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A701" s="9" t="s">
         <v>3603</v>
       </c>
@@ -21496,7 +21463,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="702" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A702" s="9" t="s">
         <v>3606</v>
       </c>
@@ -21507,7 +21474,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="703" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A703" s="9" t="s">
         <v>3609</v>
       </c>
@@ -21518,7 +21485,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="704" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A704" s="9" t="s">
         <v>3612</v>
       </c>
@@ -21529,7 +21496,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="705" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A705" s="9" t="s">
         <v>3615</v>
       </c>
@@ -21540,7 +21507,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="706" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A706" s="9" t="s">
         <v>3618</v>
       </c>
@@ -21551,7 +21518,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="707" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A707" s="9" t="s">
         <v>3621</v>
       </c>
@@ -21562,7 +21529,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="708" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A708" s="9" t="s">
         <v>3623</v>
       </c>
@@ -21573,7 +21540,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="709" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A709" s="9" t="s">
         <v>3626</v>
       </c>
@@ -21584,7 +21551,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="710" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A710" s="9" t="s">
         <v>3629</v>
       </c>
@@ -21595,7 +21562,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="711" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A711" s="9" t="s">
         <v>3632</v>
       </c>
@@ -21606,7 +21573,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="712" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A712" s="9" t="s">
         <v>3635</v>
       </c>
@@ -21617,7 +21584,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="713" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A713" s="9" t="s">
         <v>3638</v>
       </c>
@@ -21628,7 +21595,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="714" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A714" s="9" t="s">
         <v>3641</v>
       </c>
@@ -21639,7 +21606,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="715" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A715" s="9" t="s">
         <v>3644</v>
       </c>
@@ -21650,7 +21617,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="716" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A716" s="9" t="s">
         <v>3646</v>
       </c>
@@ -21661,7 +21628,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="717" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A717" s="9" t="s">
         <v>3649</v>
       </c>
@@ -21672,7 +21639,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="718" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A718" s="9" t="s">
         <v>3652</v>
       </c>
@@ -21683,7 +21650,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="719" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A719" s="9" t="s">
         <v>602</v>
       </c>
@@ -21694,7 +21661,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="720" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A720" s="9" t="s">
         <v>3398</v>
       </c>
@@ -21705,7 +21672,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="721" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A721" s="9" t="s">
         <v>3658</v>
       </c>
@@ -21716,7 +21683,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="722" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A722" s="9" t="s">
         <v>3661</v>
       </c>
@@ -21727,7 +21694,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="723" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A723" s="9" t="s">
         <v>3664</v>
       </c>
@@ -21738,7 +21705,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="724" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A724" s="9" t="s">
         <v>3667</v>
       </c>
@@ -21749,7 +21716,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="725" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A725" s="9" t="s">
         <v>3670</v>
       </c>
@@ -21760,7 +21727,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="726" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A726" s="9" t="s">
         <v>3673</v>
       </c>
@@ -21771,7 +21738,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="727" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A727" s="9" t="s">
         <v>3676</v>
       </c>
@@ -21782,7 +21749,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="728" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A728" s="9" t="s">
         <v>3679</v>
       </c>
@@ -21793,7 +21760,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="729" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A729" s="9" t="s">
         <v>3682</v>
       </c>
@@ -21804,7 +21771,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="730" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A730" s="9" t="s">
         <v>3685</v>
       </c>
@@ -21815,7 +21782,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="731" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A731" s="9" t="s">
         <v>3688</v>
       </c>
@@ -21826,7 +21793,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="732" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A732" s="9" t="s">
         <v>3691</v>
       </c>
@@ -21837,7 +21804,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="733" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A733" s="9" t="s">
         <v>3694</v>
       </c>
@@ -21848,7 +21815,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="734" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A734" s="9" t="s">
         <v>3697</v>
       </c>
@@ -21859,7 +21826,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="735" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A735" s="9" t="s">
         <v>3700</v>
       </c>
@@ -21870,7 +21837,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="736" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A736" s="9" t="s">
         <v>3703</v>
       </c>
@@ -21881,7 +21848,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="737" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A737" s="9" t="s">
         <v>2973</v>
       </c>
@@ -21892,7 +21859,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="738" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A738" s="9" t="s">
         <v>3707</v>
       </c>
@@ -21903,7 +21870,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="739" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A739" s="9" t="s">
         <v>3710</v>
       </c>
@@ -21914,7 +21881,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="740" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A740" s="9" t="s">
         <v>3712</v>
       </c>
@@ -21925,7 +21892,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="741" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A741" s="9" t="s">
         <v>3715</v>
       </c>
@@ -21936,7 +21903,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="742" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A742" s="9" t="s">
         <v>3718</v>
       </c>
@@ -21947,7 +21914,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="743" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A743" s="9" t="s">
         <v>3721</v>
       </c>
@@ -21958,7 +21925,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="744" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A744" s="9" t="s">
         <v>3724</v>
       </c>
@@ -21969,7 +21936,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="745" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A745" s="9" t="s">
         <v>3726</v>
       </c>
@@ -21980,7 +21947,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="746" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A746" s="9" t="s">
         <v>3729</v>
       </c>
@@ -21991,7 +21958,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="747" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A747" s="9" t="s">
         <v>3732</v>
       </c>
@@ -22002,7 +21969,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="748" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A748" s="9" t="s">
         <v>3735</v>
       </c>
@@ -22013,7 +21980,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="749" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A749" s="9" t="s">
         <v>3738</v>
       </c>
@@ -22024,7 +21991,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="750" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A750" s="9" t="s">
         <v>3741</v>
       </c>
@@ -22035,7 +22002,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="751" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A751" s="9" t="s">
         <v>3744</v>
       </c>
@@ -22046,7 +22013,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="752" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A752" s="9" t="s">
         <v>1617</v>
       </c>
@@ -22057,7 +22024,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="753" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A753" s="9" t="s">
         <v>3749</v>
       </c>
@@ -22068,7 +22035,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="754" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A754" s="9" t="s">
         <v>3752</v>
       </c>
@@ -22079,7 +22046,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="755" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A755" s="9" t="s">
         <v>3755</v>
       </c>
@@ -22090,7 +22057,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="756" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A756" s="9" t="s">
         <v>3758</v>
       </c>
@@ -22101,7 +22068,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="757" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A757" s="9" t="s">
         <v>3761</v>
       </c>
@@ -22112,7 +22079,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="758" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A758" s="9" t="s">
         <v>3764</v>
       </c>
@@ -22123,7 +22090,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="759" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A759" s="9" t="s">
         <v>3767</v>
       </c>
@@ -22134,7 +22101,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="760" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A760" s="9" t="s">
         <v>3770</v>
       </c>
@@ -22145,7 +22112,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="761" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A761" s="9" t="s">
         <v>3773</v>
       </c>
@@ -22156,7 +22123,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="762" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A762" s="9" t="s">
         <v>3776</v>
       </c>
@@ -22167,7 +22134,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="763" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A763" s="9" t="s">
         <v>3779</v>
       </c>
@@ -22178,7 +22145,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="764" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A764" s="9" t="s">
         <v>3782</v>
       </c>
@@ -22189,7 +22156,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="765" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A765" s="9" t="s">
         <v>1619</v>
       </c>
@@ -22200,7 +22167,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="766" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A766" s="9" t="s">
         <v>3787</v>
       </c>
@@ -22211,7 +22178,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="767" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A767" s="9" t="s">
         <v>3790</v>
       </c>
@@ -22222,7 +22189,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="768" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A768" s="9" t="s">
         <v>3793</v>
       </c>
@@ -22233,7 +22200,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="769" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A769" s="9" t="s">
         <v>3796</v>
       </c>
@@ -22244,7 +22211,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="770" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A770" s="9" t="s">
         <v>3799</v>
       </c>
@@ -22255,7 +22222,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="771" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A771" s="9" t="s">
         <v>3802</v>
       </c>
@@ -22266,7 +22233,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="772" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A772" s="9" t="s">
         <v>3804</v>
       </c>
@@ -22277,7 +22244,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="773" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A773" s="9" t="s">
         <v>3807</v>
       </c>
@@ -22288,7 +22255,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="774" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A774" s="9" t="s">
         <v>3810</v>
       </c>
@@ -22299,7 +22266,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="775" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A775" s="9" t="s">
         <v>3813</v>
       </c>
@@ -22310,7 +22277,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="776" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A776" s="9" t="s">
         <v>3816</v>
       </c>
@@ -22321,7 +22288,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="777" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A777" s="9" t="s">
         <v>3819</v>
       </c>
@@ -22332,7 +22299,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="778" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A778" s="9" t="s">
         <v>3821</v>
       </c>
@@ -22343,7 +22310,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="779" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A779" s="9" t="s">
         <v>2593</v>
       </c>
@@ -22354,7 +22321,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="780" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A780" s="9" t="s">
         <v>3824</v>
       </c>
@@ -22365,7 +22332,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="781" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A781" s="9" t="s">
         <v>2652</v>
       </c>
@@ -22376,7 +22343,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="782" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A782" s="9" t="s">
         <v>3129</v>
       </c>
@@ -22387,7 +22354,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="783" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A783" s="9" t="s">
         <v>3132</v>
       </c>
@@ -22398,7 +22365,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="784" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A784" s="9" t="s">
         <v>3829</v>
       </c>
@@ -22409,7 +22376,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="785" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A785" s="9" t="s">
         <v>3832</v>
       </c>
@@ -22420,7 +22387,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="786" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A786" s="9" t="s">
         <v>3835</v>
       </c>
@@ -22431,7 +22398,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="787" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A787" s="9" t="s">
         <v>3837</v>
       </c>
@@ -22442,7 +22409,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="788" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A788" s="9" t="s">
         <v>3840</v>
       </c>
@@ -22453,7 +22420,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="789" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A789" s="9" t="s">
         <v>3843</v>
       </c>
@@ -22464,7 +22431,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="790" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A790" s="9" t="s">
         <v>3845</v>
       </c>
@@ -22475,7 +22442,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="791" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A791" s="9" t="s">
         <v>3848</v>
       </c>
@@ -22486,7 +22453,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="792" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A792" s="9" t="s">
         <v>3851</v>
       </c>
@@ -22497,7 +22464,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="793" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A793" s="9" t="s">
         <v>3854</v>
       </c>
@@ -22508,7 +22475,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="794" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A794" s="9" t="s">
         <v>3857</v>
       </c>
@@ -22519,7 +22486,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="795" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A795" s="9" t="s">
         <v>3860</v>
       </c>
@@ -22530,7 +22497,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="796" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A796" s="9" t="s">
         <v>3863</v>
       </c>
@@ -22541,7 +22508,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="797" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A797" s="9" t="s">
         <v>3866</v>
       </c>
@@ -22552,7 +22519,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="798" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A798" s="9" t="s">
         <v>3869</v>
       </c>
@@ -22563,7 +22530,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="799" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A799" s="9" t="s">
         <v>3872</v>
       </c>
@@ -22574,7 +22541,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="800" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A800" s="9" t="s">
         <v>3875</v>
       </c>
@@ -22585,7 +22552,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="801" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A801" s="9" t="s">
         <v>3878</v>
       </c>
@@ -22596,7 +22563,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="802" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A802" s="9" t="s">
         <v>3881</v>
       </c>
@@ -22607,7 +22574,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="803" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A803" s="9" t="s">
         <v>3883</v>
       </c>
@@ -22618,7 +22585,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="804" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A804" s="9" t="s">
         <v>3885</v>
       </c>
@@ -22629,7 +22596,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="805" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A805" s="9" t="s">
         <v>3888</v>
       </c>
@@ -22640,7 +22607,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="806" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A806" s="9" t="s">
         <v>3891</v>
       </c>
@@ -22651,7 +22618,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="807" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A807" s="9" t="s">
         <v>3893</v>
       </c>
@@ -22662,7 +22629,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="808" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A808" s="9" t="s">
         <v>3896</v>
       </c>
@@ -22673,7 +22640,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="809" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A809" s="9" t="s">
         <v>3899</v>
       </c>
@@ -22684,7 +22651,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="810" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A810" s="9" t="s">
         <v>3902</v>
       </c>
@@ -22695,7 +22662,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="811" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A811" s="9" t="s">
         <v>3905</v>
       </c>
@@ -22706,7 +22673,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="812" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A812" s="9" t="s">
         <v>3908</v>
       </c>
@@ -22717,7 +22684,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="813" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A813" s="9" t="s">
         <v>3911</v>
       </c>
@@ -22728,7 +22695,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="814" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A814" s="9" t="s">
         <v>71</v>
       </c>
@@ -22739,7 +22706,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="815" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A815" s="9" t="s">
         <v>3915</v>
       </c>
@@ -22750,7 +22717,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="816" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A816" s="9" t="s">
         <v>3918</v>
       </c>
@@ -22761,7 +22728,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="817" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A817" s="9" t="s">
         <v>3921</v>
       </c>
@@ -22772,7 +22739,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="818" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A818" s="9" t="s">
         <v>3924</v>
       </c>
@@ -22783,7 +22750,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="819" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A819" s="9" t="s">
         <v>3927</v>
       </c>
@@ -22794,7 +22761,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="820" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A820" s="9" t="s">
         <v>3930</v>
       </c>
@@ -22805,7 +22772,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="821" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A821" s="9" t="s">
         <v>3932</v>
       </c>
@@ -22816,7 +22783,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="822" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A822" s="9" t="s">
         <v>3935</v>
       </c>
@@ -22827,7 +22794,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="823" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A823" s="9" t="s">
         <v>753</v>
       </c>
@@ -22838,7 +22805,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="824" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A824" s="9" t="s">
         <v>3939</v>
       </c>
@@ -22849,7 +22816,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="825" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A825" s="9" t="s">
         <v>3942</v>
       </c>
@@ -22860,7 +22827,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="826" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A826" s="9" t="s">
         <v>3945</v>
       </c>
@@ -22871,7 +22838,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="827" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A827" s="9" t="s">
         <v>3948</v>
       </c>
@@ -22882,7 +22849,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="828" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A828" s="9" t="s">
         <v>3951</v>
       </c>
@@ -22893,7 +22860,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="829" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A829" s="9" t="s">
         <v>3954</v>
       </c>
@@ -22904,7 +22871,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="830" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A830" s="9" t="s">
         <v>3956</v>
       </c>
@@ -22915,7 +22882,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="831" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="831" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A831" s="9" t="s">
         <v>3959</v>
       </c>
@@ -22926,7 +22893,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="832" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A832" s="9" t="s">
         <v>3962</v>
       </c>
@@ -22937,7 +22904,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="833" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="833" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A833" s="9" t="s">
         <v>3964</v>
       </c>
@@ -22948,7 +22915,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="834" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="834" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A834" s="9" t="s">
         <v>3967</v>
       </c>
@@ -22959,7 +22926,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="835" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="835" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A835" s="9" t="s">
         <v>3970</v>
       </c>
@@ -22970,7 +22937,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="836" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="836" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A836" s="9" t="s">
         <v>3973</v>
       </c>
@@ -22981,7 +22948,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="837" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="837" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A837" s="9" t="s">
         <v>3976</v>
       </c>
@@ -22992,7 +22959,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="838" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="838" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A838" s="9" t="s">
         <v>3979</v>
       </c>
@@ -23003,7 +22970,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="839" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="839" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A839" s="9" t="s">
         <v>3982</v>
       </c>
@@ -23014,7 +22981,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="840" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="840" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A840" s="9" t="s">
         <v>3985</v>
       </c>
@@ -23025,7 +22992,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="841" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="841" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A841" s="9" t="s">
         <v>3988</v>
       </c>
@@ -23036,7 +23003,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="842" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="842" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A842" s="9" t="s">
         <v>3991</v>
       </c>
@@ -23047,7 +23014,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="843" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="843" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A843" s="9" t="s">
         <v>3994</v>
       </c>
@@ -23058,8 +23025,8 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A844" s="12" t="s">
+    <row r="844" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A844" s="9" t="s">
         <v>3996</v>
       </c>
       <c r="B844" s="5" t="s">
@@ -23069,7 +23036,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="845" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="845" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A845" s="9" t="s">
         <v>3999</v>
       </c>
@@ -23080,8 +23047,8 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="846" spans="1:3" ht="73.5" x14ac:dyDescent="2.4">
-      <c r="A846" s="13" t="s">
+    <row r="846" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A846" s="9" t="s">
         <v>4002</v>
       </c>
       <c r="B846" s="5" t="s">
@@ -23091,8 +23058,8 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A847" s="12" t="s">
+    <row r="847" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A847" s="9" t="s">
         <v>4004</v>
       </c>
       <c r="B847" s="5" t="s">
@@ -23102,7 +23069,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="848" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="848" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A848" s="9" t="s">
         <v>4007</v>
       </c>
@@ -23113,7 +23080,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="849" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="849" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A849" s="9" t="s">
         <v>4010</v>
       </c>
@@ -23124,7 +23091,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="850" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="850" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A850" s="9" t="s">
         <v>4013</v>
       </c>
@@ -23135,7 +23102,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="851" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="851" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A851" s="9" t="s">
         <v>4016</v>
       </c>
@@ -23146,7 +23113,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="852" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="852" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A852" s="9" t="s">
         <v>4019</v>
       </c>
@@ -23157,7 +23124,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="853" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A853" s="9" t="s">
         <v>4022</v>
       </c>
@@ -23168,7 +23135,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="854" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A854" s="9" t="s">
         <v>4025</v>
       </c>
@@ -23179,7 +23146,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="855" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="855" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A855" s="9" t="s">
         <v>4028</v>
       </c>
@@ -23190,7 +23157,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="856" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A856" s="9" t="s">
         <v>4031</v>
       </c>
@@ -23201,7 +23168,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="857" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A857" s="9" t="s">
         <v>4034</v>
       </c>
@@ -23212,7 +23179,7 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="858" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="858" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A858" s="9" t="s">
         <v>4037</v>
       </c>
@@ -23223,7 +23190,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="859" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A859" s="9" t="s">
         <v>4040</v>
       </c>
@@ -23234,7 +23201,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="860" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A860" s="9" t="s">
         <v>4043</v>
       </c>
@@ -23245,7 +23212,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="861" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="861" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A861" s="9" t="s">
         <v>4046</v>
       </c>
@@ -23256,7 +23223,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="862" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A862" s="9" t="s">
         <v>4048</v>
       </c>
@@ -23267,7 +23234,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="863" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="863" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A863" s="9" t="s">
         <v>4051</v>
       </c>
@@ -23278,7 +23245,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="864" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A864" s="9" t="s">
         <v>4054</v>
       </c>
@@ -23289,7 +23256,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="865" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A865" s="9" t="s">
         <v>4056</v>
       </c>
@@ -23300,7 +23267,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="866" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="866" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A866" s="9" t="s">
         <v>4059</v>
       </c>
@@ -23311,7 +23278,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="867" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="867" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A867" s="9" t="s">
         <v>4061</v>
       </c>
@@ -23322,7 +23289,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="868" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="868" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A868" s="9" t="s">
         <v>4064</v>
       </c>
@@ -23333,7 +23300,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="869" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="869" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A869" s="9" t="s">
         <v>4067</v>
       </c>
@@ -23344,7 +23311,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="870" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="870" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A870" s="9" t="s">
         <v>4070</v>
       </c>
@@ -23355,7 +23322,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="871" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="871" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A871" s="9" t="s">
         <v>4073</v>
       </c>
@@ -23366,7 +23333,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="872" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="872" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A872" s="9" t="s">
         <v>4076</v>
       </c>
@@ -23377,7 +23344,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="873" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="873" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A873" s="9" t="s">
         <v>4079</v>
       </c>
@@ -23388,7 +23355,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="874" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="874" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A874" s="9" t="s">
         <v>4082</v>
       </c>
@@ -23399,7 +23366,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="875" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="875" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A875" s="9" t="s">
         <v>4085</v>
       </c>
@@ -23410,7 +23377,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="876" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="876" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A876" s="9" t="s">
         <v>4088</v>
       </c>
@@ -23421,7 +23388,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="877" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="877" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A877" s="9" t="s">
         <v>4091</v>
       </c>
@@ -23432,7 +23399,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="878" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="878" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A878" s="9" t="s">
         <v>4094</v>
       </c>
@@ -23443,8 +23410,8 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="879" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A879" s="12" t="s">
+    <row r="879" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A879" s="9" t="s">
         <v>4097</v>
       </c>
       <c r="B879" s="5" t="s">
@@ -23454,7 +23421,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="880" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A880" s="9" t="s">
         <v>4100</v>
       </c>
@@ -23465,7 +23432,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="881" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A881" s="9" t="s">
         <v>4103</v>
       </c>
@@ -23476,8 +23443,8 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A882" s="12" t="s">
+    <row r="882" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A882" s="9" t="s">
         <v>4106</v>
       </c>
       <c r="B882" s="5" t="s">
@@ -23487,8 +23454,8 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A883" s="12" t="s">
+    <row r="883" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A883" s="9" t="s">
         <v>4108</v>
       </c>
       <c r="B883" s="5" t="s">
@@ -23498,8 +23465,8 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A884" s="12" t="s">
+    <row r="884" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A884" s="9" t="s">
         <v>4111</v>
       </c>
       <c r="B884" s="5" t="s">
@@ -23509,7 +23476,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="885" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A885" s="9" t="s">
         <v>4113</v>
       </c>
@@ -23520,7 +23487,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="886" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A886" s="9" t="s">
         <v>4116</v>
       </c>
@@ -23531,7 +23498,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="887" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A887" s="9" t="s">
         <v>4119</v>
       </c>
@@ -23542,7 +23509,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="888" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A888" s="9" t="s">
         <v>4122</v>
       </c>
@@ -23553,7 +23520,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="889" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A889" s="9" t="s">
         <v>4125</v>
       </c>
@@ -23564,7 +23531,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="890" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A890" s="9" t="s">
         <v>4128</v>
       </c>
@@ -23575,7 +23542,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="891" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A891" s="9" t="s">
         <v>4130</v>
       </c>
@@ -23586,7 +23553,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="892" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A892" s="9" t="s">
         <v>4133</v>
       </c>
@@ -23597,7 +23564,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="893" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A893" s="9" t="s">
         <v>4136</v>
       </c>
@@ -23608,7 +23575,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="894" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A894" s="9" t="s">
         <v>4139</v>
       </c>
@@ -23619,7 +23586,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="895" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A895" s="9" t="s">
         <v>4141</v>
       </c>
@@ -23630,7 +23597,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="896" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A896" s="9" t="s">
         <v>4144</v>
       </c>
@@ -23641,8 +23608,8 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="57.75" x14ac:dyDescent="1.9">
-      <c r="A897" s="11" t="s">
+    <row r="897" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A897" s="9" t="s">
         <v>4147</v>
       </c>
       <c r="B897" s="5" t="s">
@@ -23652,7 +23619,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="898" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A898" s="9" t="s">
         <v>4150</v>
       </c>
@@ -23663,7 +23630,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="899" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A899" s="9" t="s">
         <v>4153</v>
       </c>
@@ -23674,7 +23641,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="900" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A900" s="9" t="s">
         <v>4155</v>
       </c>
@@ -23685,7 +23652,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="901" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A901" s="9" t="s">
         <v>4158</v>
       </c>
@@ -23696,7 +23663,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="902" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A902" s="9" t="s">
         <v>4161</v>
       </c>
@@ -23707,7 +23674,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="903" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A903" s="9" t="s">
         <v>4164</v>
       </c>
@@ -23718,7 +23685,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="904" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A904" s="9" t="s">
         <v>4167</v>
       </c>
@@ -23729,7 +23696,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="905" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A905" s="9" t="s">
         <v>4170</v>
       </c>
@@ -23740,7 +23707,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="906" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A906" s="9" t="s">
         <v>4173</v>
       </c>
@@ -23751,7 +23718,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="907" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A907" s="9" t="s">
         <v>4176</v>
       </c>
@@ -23762,8 +23729,8 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A908" s="12" t="s">
+    <row r="908" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A908" s="9" t="s">
         <v>4179</v>
       </c>
       <c r="B908" s="5" t="s">
@@ -23773,7 +23740,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="909" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A909" s="9" t="s">
         <v>4181</v>
       </c>
@@ -23784,7 +23751,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="910" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A910" s="9" t="s">
         <v>4184</v>
       </c>
@@ -23795,7 +23762,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="911" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A911" s="9" t="s">
         <v>4187</v>
       </c>
@@ -23806,7 +23773,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="912" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A912" s="9" t="s">
         <v>4190</v>
       </c>
@@ -23817,7 +23784,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="913" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A913" s="9" t="s">
         <v>4193</v>
       </c>
@@ -23828,7 +23795,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="914" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A914" s="9" t="s">
         <v>4196</v>
       </c>
@@ -23839,7 +23806,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="915" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A915" s="9" t="s">
         <v>4199</v>
       </c>
@@ -23850,7 +23817,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="916" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A916" s="9" t="s">
         <v>30</v>
       </c>
@@ -23861,7 +23828,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="917" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A917" s="9" t="s">
         <v>4204</v>
       </c>
@@ -23872,7 +23839,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="918" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A918" s="9" t="s">
         <v>4207</v>
       </c>
@@ -23883,7 +23850,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="919" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A919" s="9" t="s">
         <v>4210</v>
       </c>
@@ -23894,7 +23861,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="920" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A920" s="9" t="s">
         <v>4213</v>
       </c>
@@ -23905,7 +23872,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="921" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A921" s="9" t="s">
         <v>4216</v>
       </c>
@@ -23916,7 +23883,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="922" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A922" s="9" t="s">
         <v>4219</v>
       </c>
@@ -23927,7 +23894,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="923" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A923" s="9" t="s">
         <v>4222</v>
       </c>
@@ -23938,7 +23905,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="924" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A924" s="9" t="s">
         <v>4225</v>
       </c>
@@ -23949,7 +23916,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="925" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A925" s="9" t="s">
         <v>4228</v>
       </c>
@@ -23960,7 +23927,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="926" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A926" s="9" t="s">
         <v>4230</v>
       </c>
@@ -23971,7 +23938,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="927" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A927" s="9" t="s">
         <v>4233</v>
       </c>
@@ -23982,7 +23949,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="928" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A928" s="9" t="s">
         <v>4236</v>
       </c>
@@ -23993,7 +23960,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="929" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A929" s="9" t="s">
         <v>4239</v>
       </c>
@@ -24004,7 +23971,7 @@
         <v>4241</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="930" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A930" s="9" t="s">
         <v>4242</v>
       </c>
@@ -24015,7 +23982,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="931" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A931" s="9" t="s">
         <v>4245</v>
       </c>
@@ -24026,7 +23993,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="932" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A932" s="9" t="s">
         <v>4248</v>
       </c>
@@ -24037,8 +24004,8 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="933" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A933" s="12" t="s">
+    <row r="933" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A933" s="9" t="s">
         <v>4251</v>
       </c>
       <c r="B933" s="5" t="s">
@@ -24048,8 +24015,8 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A934" s="12" t="s">
+    <row r="934" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A934" s="9" t="s">
         <v>4254</v>
       </c>
       <c r="B934" s="5" t="s">
@@ -24059,7 +24026,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="935" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="935" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A935" s="9" t="s">
         <v>4257</v>
       </c>
@@ -24070,7 +24037,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="936" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="936" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A936" s="9" t="s">
         <v>67</v>
       </c>
@@ -24081,7 +24048,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="937" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A937" s="9" t="s">
         <v>4262</v>
       </c>
@@ -24092,7 +24059,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="938" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A938" s="9" t="s">
         <v>4264</v>
       </c>
@@ -24103,7 +24070,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="939" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A939" s="9" t="s">
         <v>4266</v>
       </c>
@@ -24114,7 +24081,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="940" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A940" s="9" t="s">
         <v>1158</v>
       </c>
@@ -24125,7 +24092,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="941" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A941" s="9" t="s">
         <v>4271</v>
       </c>
@@ -24136,7 +24103,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="942" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A942" s="9" t="s">
         <v>4274</v>
       </c>
@@ -24147,7 +24114,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="943" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A943" s="9" t="s">
         <v>4277</v>
       </c>
@@ -24158,7 +24125,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="944" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A944" s="9" t="s">
         <v>4279</v>
       </c>
@@ -24169,7 +24136,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="945" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A945" s="9" t="s">
         <v>4282</v>
       </c>
@@ -24180,7 +24147,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="946" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A946" s="9" t="s">
         <v>4285</v>
       </c>
@@ -24191,7 +24158,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="947" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A947" s="9" t="s">
         <v>4288</v>
       </c>
@@ -24202,7 +24169,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="948" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A948" s="9" t="s">
         <v>4291</v>
       </c>
@@ -24213,7 +24180,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="949" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A949" s="9" t="s">
         <v>4294</v>
       </c>
@@ -24224,7 +24191,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="950" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A950" s="9" t="s">
         <v>4297</v>
       </c>
@@ -24235,7 +24202,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="951" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A951" s="9" t="s">
         <v>4300</v>
       </c>
@@ -24246,7 +24213,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="952" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A952" s="9" t="s">
         <v>4303</v>
       </c>
@@ -24257,7 +24224,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="953" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A953" s="9" t="s">
         <v>4306</v>
       </c>
@@ -24268,7 +24235,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="954" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A954" s="9" t="s">
         <v>4308</v>
       </c>
@@ -24279,7 +24246,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="955" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A955" s="9" t="s">
         <v>4311</v>
       </c>
@@ -24290,7 +24257,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="956" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A956" s="9" t="s">
         <v>4314</v>
       </c>
@@ -24301,7 +24268,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="957" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A957" s="9" t="s">
         <v>4317</v>
       </c>
@@ -24312,7 +24279,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="958" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A958" s="9" t="s">
         <v>4320</v>
       </c>
@@ -24323,7 +24290,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="959" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A959" s="9" t="s">
         <v>4323</v>
       </c>
@@ -24334,7 +24301,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="960" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A960" s="9" t="s">
         <v>1616</v>
       </c>
@@ -24345,7 +24312,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="961" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A961" s="9" t="s">
         <v>4327</v>
       </c>
@@ -24356,7 +24323,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="962" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A962" s="9" t="s">
         <v>4330</v>
       </c>
@@ -24367,7 +24334,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="963" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A963" s="9" t="s">
         <v>4333</v>
       </c>
@@ -24378,7 +24345,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="964" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A964" s="9" t="s">
         <v>4336</v>
       </c>
@@ -24389,7 +24356,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="965" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A965" s="9" t="s">
         <v>4339</v>
       </c>
@@ -24400,7 +24367,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="966" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A966" s="9" t="s">
         <v>4342</v>
       </c>
@@ -24411,7 +24378,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="967" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A967" s="9" t="s">
         <v>4345</v>
       </c>
@@ -24422,7 +24389,7 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="968" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A968" s="9" t="s">
         <v>4348</v>
       </c>
@@ -24433,7 +24400,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="969" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A969" s="9" t="s">
         <v>4351</v>
       </c>
@@ -24444,7 +24411,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="970" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A970" s="9" t="s">
         <v>3721</v>
       </c>
@@ -24455,7 +24422,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="971" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="971" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A971" s="9" t="s">
         <v>4355</v>
       </c>
@@ -24466,7 +24433,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="972" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="972" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A972" s="9" t="s">
         <v>4358</v>
       </c>
@@ -24477,7 +24444,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="973" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="973" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A973" s="9" t="s">
         <v>4361</v>
       </c>
@@ -24488,7 +24455,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="974" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="974" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A974" s="9" t="s">
         <v>4363</v>
       </c>
@@ -24499,7 +24466,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="975" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="975" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A975" s="9" t="s">
         <v>4366</v>
       </c>
@@ -24510,7 +24477,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="976" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="976" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A976" s="9" t="s">
         <v>3821</v>
       </c>
@@ -24521,7 +24488,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="977" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="977" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A977" s="9" t="s">
         <v>4371</v>
       </c>
@@ -24532,7 +24499,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="978" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="978" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A978" s="9" t="s">
         <v>4373</v>
       </c>
@@ -24543,7 +24510,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="979" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="979" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A979" s="9" t="s">
         <v>4375</v>
       </c>
@@ -24554,8 +24521,8 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="980" spans="1:3" ht="95.25" x14ac:dyDescent="3.1">
-      <c r="A980" s="14" t="s">
+    <row r="980" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A980" s="9" t="s">
         <v>4378</v>
       </c>
       <c r="B980" s="5" t="s">
@@ -24565,8 +24532,8 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="981" spans="1:3" ht="73.5" x14ac:dyDescent="2.4">
-      <c r="A981" s="13" t="s">
+    <row r="981" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A981" s="9" t="s">
         <v>4381</v>
       </c>
       <c r="B981" s="5" t="s">
@@ -24576,7 +24543,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="982" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="982" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A982" s="9" t="s">
         <v>4384</v>
       </c>
@@ -24587,7 +24554,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="983" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="983" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A983" s="9" t="s">
         <v>4387</v>
       </c>
@@ -24598,7 +24565,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="984" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="984" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A984" s="9" t="s">
         <v>4390</v>
       </c>
@@ -24609,7 +24576,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="985" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="985" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A985" s="9" t="s">
         <v>4116</v>
       </c>
@@ -24620,7 +24587,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="986" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="986" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A986" s="9" t="s">
         <v>4393</v>
       </c>
@@ -24631,7 +24598,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="987" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="987" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A987" s="9" t="s">
         <v>4396</v>
       </c>
@@ -24642,8 +24609,8 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="988" spans="1:3" ht="73.5" x14ac:dyDescent="2.4">
-      <c r="A988" s="13" t="s">
+    <row r="988" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A988" s="9" t="s">
         <v>4399</v>
       </c>
       <c r="B988" s="5" t="s">
@@ -24653,7 +24620,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="989" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="989" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A989" s="9" t="s">
         <v>4401</v>
       </c>
@@ -24664,7 +24631,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="990" spans="1:3" ht="31.5" x14ac:dyDescent="1.05">
+    <row r="990" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
       <c r="A990" s="9" t="s">
         <v>4404</v>
       </c>
@@ -24675,8 +24642,8 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="991" spans="1:3" ht="66" x14ac:dyDescent="2.15">
-      <c r="A991" s="12" t="s">
+    <row r="991" spans="1:3" ht="51.75" x14ac:dyDescent="1.7">
+      <c r="A991" s="9" t="s">
         <v>4407</v>
       </c>
       <c r="B991" s="5" t="s">
